--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMR30301_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMR30301_Thong ke thoi gian giao hang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao thong ke thoi gian giao hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Thong ke thoi gian giao hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="234">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2324,21 +2324,7 @@
     <t>In báo cáo Thống kê thời gian giao hàng</t>
   </si>
   <si>
-    <t>Login -&gt; ASOFT-CRM 
--&gt;Menu[Báo cáo] -&gt; menuItem[Báo cáo Biểu đồ]
--&gt; Click vào Link Báo cáo thống kê thời gian giao hàng
--&gt; Pop[Thống kê thời gian giao hàng_ CRMF3030]
--&gt; In
--&gt; [Tab]Báo cáo thống kê thời gian giao hàng</t>
-  </si>
-  <si>
     <t>CRMR30301</t>
-  </si>
-  <si>
-    <t>Nhận tham số @DivisionID từ màn hình CRMF3030 để mở tab báo cáo CRMR30301</t>
-  </si>
-  <si>
-    <t>Click Button In từ màn hình CRMF3030</t>
   </si>
   <si>
     <t xml:space="preserve">EXEC CRMP30301(
@@ -2354,12 +2340,6 @@
 </t>
   </si>
   <si>
-    <t>Nhận tham số từ màn hình CRMF3030 để load tab báo cáo Thống kê thời gian giao hàng</t>
-  </si>
-  <si>
-    <t>@SQL0001 load nội dung báo cáo thống kê thời gian giao hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
 @Period
 @FromAccountID @ToAccountID 
@@ -2382,6 +2362,54 @@
   </si>
   <si>
     <t>CustomizeIndex</t>
+  </si>
+  <si>
+    <t>Login -&gt; ASOFT-CRM 
+-&gt;Menu[Báo cáo] -&gt;
+ Page[Báo cáo Biểu đồ]
+-&gt; Click vào Link Báo cáo thống kê thời gian giao hàng
+-&gt; Pop[Thống kê thời gian giao hàng_ CRMF3030]
+-&gt; In
+-&gt; [Tab]Báo cáo thống kê thời gian giao hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ ngày </t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>Control này được truyền từ CRMF3010 nếu IsDate = 1</t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Theo kỳ</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Control này được truyền từ CRMF3010 nếu IsDate = 0</t>
+  </si>
+  <si>
+    <t>ID Store</t>
+  </si>
+  <si>
+    <t>Nhận các tham số truyền từ màn hình CRMF3030 để truyền vào @SQL0001 load tab báo cáo Thống kê thời gian giao hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị báo cáo Thống kê thời gian giao hàng để người dùng xem trước khi in </t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001 load tab nội dung báo cáo thống kê thời gian giao hàng CRMR30301</t>
+  </si>
+  <si>
+    <t>Tham khảo sheet Code Standar</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +2980,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3309,102 +3337,105 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3475,6 +3506,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3486,15 +3526,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3518,6 +3549,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3600,19 +3634,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3638551</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34212</xdr:rowOff>
+      <xdr:colOff>3444505</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3632,8 +3666,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1" y="304800"/>
-          <a:ext cx="10515600" cy="3844212"/>
+          <a:off x="76200" y="866776"/>
+          <a:ext cx="10245355" cy="3676650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4444,65 +4478,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="155" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="154" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154" t="s">
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="154"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="154" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="150" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="151"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="151"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4513,56 +4547,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4573,384 +4607,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="148"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="143"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="143"/>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="143"/>
-      <c r="Z28" s="143"/>
-      <c r="AA28" s="143"/>
-      <c r="AB28" s="143"/>
-      <c r="AC28" s="143"/>
-      <c r="AD28" s="143"/>
-      <c r="AE28" s="143"/>
-      <c r="AF28" s="143"/>
-      <c r="AG28" s="143"/>
-      <c r="AH28" s="143"/>
-      <c r="AI28" s="143"/>
-      <c r="AJ28" s="143"/>
-      <c r="AK28" s="143"/>
-      <c r="AL28" s="143"/>
-      <c r="AM28" s="143"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="143"/>
-      <c r="AP28" s="143"/>
-      <c r="AQ28" s="143"/>
-      <c r="AR28" s="143"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="143"/>
-      <c r="AU28" s="143"/>
-      <c r="AV28" s="143"/>
-      <c r="AW28" s="143"/>
-      <c r="AX28" s="143"/>
-      <c r="AY28" s="143"/>
-      <c r="AZ28" s="143"/>
-      <c r="BA28" s="143"/>
-      <c r="BB28" s="143"/>
-      <c r="BC28" s="143"/>
-      <c r="BD28" s="143"/>
-      <c r="BE28" s="143"/>
-      <c r="BF28" s="143"/>
-      <c r="BG28" s="143"/>
-      <c r="BH28" s="143"/>
-      <c r="BI28" s="143"/>
-      <c r="BJ28" s="143"/>
-      <c r="BK28" s="143"/>
-      <c r="BL28" s="143"/>
-      <c r="BM28" s="143"/>
-      <c r="BN28" s="143"/>
-      <c r="BO28" s="143"/>
-      <c r="BP28" s="143"/>
-      <c r="BQ28" s="143"/>
-      <c r="BR28" s="143"/>
-      <c r="BS28" s="143"/>
-      <c r="BT28" s="143"/>
-      <c r="BU28" s="143"/>
-      <c r="BV28" s="143"/>
-      <c r="BW28" s="143"/>
-      <c r="BX28" s="143"/>
-      <c r="BY28" s="143"/>
-      <c r="BZ28" s="143"/>
-      <c r="CA28" s="143"/>
-      <c r="CB28" s="143"/>
-      <c r="CC28" s="143"/>
-      <c r="CD28" s="143"/>
-      <c r="CE28" s="143"/>
-      <c r="CF28" s="143"/>
-      <c r="CG28" s="143"/>
-      <c r="CH28" s="143"/>
-      <c r="CI28" s="143"/>
-      <c r="CJ28" s="143"/>
-      <c r="CK28" s="143"/>
-      <c r="CL28" s="143"/>
-      <c r="CM28" s="143"/>
-      <c r="CN28" s="143"/>
-      <c r="CO28" s="143"/>
-      <c r="CP28" s="143"/>
-      <c r="CQ28" s="143"/>
-      <c r="CR28" s="143"/>
-      <c r="CS28" s="143"/>
-      <c r="CT28" s="143"/>
-      <c r="CU28" s="143"/>
-      <c r="CV28" s="143"/>
-      <c r="CW28" s="143"/>
-      <c r="CX28" s="143"/>
-      <c r="CY28" s="143"/>
-      <c r="CZ28" s="143"/>
-      <c r="DA28" s="143"/>
-      <c r="DB28" s="143"/>
-      <c r="DC28" s="143"/>
-      <c r="DD28" s="143"/>
-      <c r="DE28" s="143"/>
-      <c r="DF28" s="143"/>
-      <c r="DG28" s="143"/>
-      <c r="DH28" s="143"/>
-      <c r="DI28" s="143"/>
-      <c r="DJ28" s="143"/>
-      <c r="DK28" s="143"/>
-      <c r="DL28" s="143"/>
-      <c r="DM28" s="143"/>
-      <c r="DN28" s="143"/>
-      <c r="DO28" s="143"/>
-      <c r="DP28" s="143"/>
-      <c r="DQ28" s="143"/>
-      <c r="DR28" s="143"/>
-      <c r="DS28" s="143"/>
-      <c r="DT28" s="143"/>
-      <c r="DU28" s="143"/>
-      <c r="DV28" s="143"/>
-      <c r="DW28" s="143"/>
-      <c r="DX28" s="143"/>
-      <c r="DY28" s="143"/>
-      <c r="DZ28" s="143"/>
-      <c r="EA28" s="143"/>
-      <c r="EB28" s="143"/>
-      <c r="EC28" s="143"/>
-      <c r="ED28" s="143"/>
-      <c r="EE28" s="143"/>
-      <c r="EF28" s="143"/>
-      <c r="EG28" s="143"/>
-      <c r="EH28" s="143"/>
-      <c r="EI28" s="143"/>
-      <c r="EJ28" s="143"/>
-      <c r="EK28" s="143"/>
-      <c r="EL28" s="143"/>
-      <c r="EM28" s="143"/>
-      <c r="EN28" s="143"/>
-      <c r="EO28" s="143"/>
-      <c r="EP28" s="143"/>
-      <c r="EQ28" s="143"/>
-      <c r="ER28" s="143"/>
-      <c r="ES28" s="143"/>
-      <c r="ET28" s="143"/>
-      <c r="EU28" s="143"/>
-      <c r="EV28" s="143"/>
-      <c r="EW28" s="143"/>
-      <c r="EX28" s="143"/>
-      <c r="EY28" s="143"/>
-      <c r="EZ28" s="143"/>
-      <c r="FA28" s="143"/>
-      <c r="FB28" s="143"/>
-      <c r="FC28" s="143"/>
-      <c r="FD28" s="143"/>
-      <c r="FE28" s="143"/>
-      <c r="FF28" s="143"/>
-      <c r="FG28" s="143"/>
-      <c r="FH28" s="143"/>
-      <c r="FI28" s="143"/>
-      <c r="FJ28" s="143"/>
-      <c r="FK28" s="143"/>
-      <c r="FL28" s="143"/>
-      <c r="FM28" s="143"/>
-      <c r="FN28" s="143"/>
-      <c r="FO28" s="143"/>
-      <c r="FP28" s="143"/>
-      <c r="FQ28" s="143"/>
-      <c r="FR28" s="143"/>
-      <c r="FS28" s="143"/>
-      <c r="FT28" s="143"/>
-      <c r="FU28" s="143"/>
-      <c r="FV28" s="143"/>
-      <c r="FW28" s="143"/>
-      <c r="FX28" s="143"/>
-      <c r="FY28" s="143"/>
-      <c r="FZ28" s="143"/>
-      <c r="GA28" s="143"/>
-      <c r="GB28" s="143"/>
-      <c r="GC28" s="143"/>
-      <c r="GD28" s="143"/>
-      <c r="GE28" s="143"/>
-      <c r="GF28" s="143"/>
-      <c r="GG28" s="143"/>
-      <c r="GH28" s="143"/>
-      <c r="GI28" s="143"/>
-      <c r="GJ28" s="143"/>
-      <c r="GK28" s="143"/>
-      <c r="GL28" s="143"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="163"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="162"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="162"/>
+      <c r="AL28" s="162"/>
+      <c r="AM28" s="162"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="162"/>
+      <c r="AP28" s="162"/>
+      <c r="AQ28" s="162"/>
+      <c r="AR28" s="162"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="162"/>
+      <c r="AU28" s="162"/>
+      <c r="AV28" s="162"/>
+      <c r="AW28" s="162"/>
+      <c r="AX28" s="162"/>
+      <c r="AY28" s="162"/>
+      <c r="AZ28" s="162"/>
+      <c r="BA28" s="162"/>
+      <c r="BB28" s="162"/>
+      <c r="BC28" s="162"/>
+      <c r="BD28" s="162"/>
+      <c r="BE28" s="162"/>
+      <c r="BF28" s="162"/>
+      <c r="BG28" s="162"/>
+      <c r="BH28" s="162"/>
+      <c r="BI28" s="162"/>
+      <c r="BJ28" s="162"/>
+      <c r="BK28" s="162"/>
+      <c r="BL28" s="162"/>
+      <c r="BM28" s="162"/>
+      <c r="BN28" s="162"/>
+      <c r="BO28" s="162"/>
+      <c r="BP28" s="162"/>
+      <c r="BQ28" s="162"/>
+      <c r="BR28" s="162"/>
+      <c r="BS28" s="162"/>
+      <c r="BT28" s="162"/>
+      <c r="BU28" s="162"/>
+      <c r="BV28" s="162"/>
+      <c r="BW28" s="162"/>
+      <c r="BX28" s="162"/>
+      <c r="BY28" s="162"/>
+      <c r="BZ28" s="162"/>
+      <c r="CA28" s="162"/>
+      <c r="CB28" s="162"/>
+      <c r="CC28" s="162"/>
+      <c r="CD28" s="162"/>
+      <c r="CE28" s="162"/>
+      <c r="CF28" s="162"/>
+      <c r="CG28" s="162"/>
+      <c r="CH28" s="162"/>
+      <c r="CI28" s="162"/>
+      <c r="CJ28" s="162"/>
+      <c r="CK28" s="162"/>
+      <c r="CL28" s="162"/>
+      <c r="CM28" s="162"/>
+      <c r="CN28" s="162"/>
+      <c r="CO28" s="162"/>
+      <c r="CP28" s="162"/>
+      <c r="CQ28" s="162"/>
+      <c r="CR28" s="162"/>
+      <c r="CS28" s="162"/>
+      <c r="CT28" s="162"/>
+      <c r="CU28" s="162"/>
+      <c r="CV28" s="162"/>
+      <c r="CW28" s="162"/>
+      <c r="CX28" s="162"/>
+      <c r="CY28" s="162"/>
+      <c r="CZ28" s="162"/>
+      <c r="DA28" s="162"/>
+      <c r="DB28" s="162"/>
+      <c r="DC28" s="162"/>
+      <c r="DD28" s="162"/>
+      <c r="DE28" s="162"/>
+      <c r="DF28" s="162"/>
+      <c r="DG28" s="162"/>
+      <c r="DH28" s="162"/>
+      <c r="DI28" s="162"/>
+      <c r="DJ28" s="162"/>
+      <c r="DK28" s="162"/>
+      <c r="DL28" s="162"/>
+      <c r="DM28" s="162"/>
+      <c r="DN28" s="162"/>
+      <c r="DO28" s="162"/>
+      <c r="DP28" s="162"/>
+      <c r="DQ28" s="162"/>
+      <c r="DR28" s="162"/>
+      <c r="DS28" s="162"/>
+      <c r="DT28" s="162"/>
+      <c r="DU28" s="162"/>
+      <c r="DV28" s="162"/>
+      <c r="DW28" s="162"/>
+      <c r="DX28" s="162"/>
+      <c r="DY28" s="162"/>
+      <c r="DZ28" s="162"/>
+      <c r="EA28" s="162"/>
+      <c r="EB28" s="162"/>
+      <c r="EC28" s="162"/>
+      <c r="ED28" s="162"/>
+      <c r="EE28" s="162"/>
+      <c r="EF28" s="162"/>
+      <c r="EG28" s="162"/>
+      <c r="EH28" s="162"/>
+      <c r="EI28" s="162"/>
+      <c r="EJ28" s="162"/>
+      <c r="EK28" s="162"/>
+      <c r="EL28" s="162"/>
+      <c r="EM28" s="162"/>
+      <c r="EN28" s="162"/>
+      <c r="EO28" s="162"/>
+      <c r="EP28" s="162"/>
+      <c r="EQ28" s="162"/>
+      <c r="ER28" s="162"/>
+      <c r="ES28" s="162"/>
+      <c r="ET28" s="162"/>
+      <c r="EU28" s="162"/>
+      <c r="EV28" s="162"/>
+      <c r="EW28" s="162"/>
+      <c r="EX28" s="162"/>
+      <c r="EY28" s="162"/>
+      <c r="EZ28" s="162"/>
+      <c r="FA28" s="162"/>
+      <c r="FB28" s="162"/>
+      <c r="FC28" s="162"/>
+      <c r="FD28" s="162"/>
+      <c r="FE28" s="162"/>
+      <c r="FF28" s="162"/>
+      <c r="FG28" s="162"/>
+      <c r="FH28" s="162"/>
+      <c r="FI28" s="162"/>
+      <c r="FJ28" s="162"/>
+      <c r="FK28" s="162"/>
+      <c r="FL28" s="162"/>
+      <c r="FM28" s="162"/>
+      <c r="FN28" s="162"/>
+      <c r="FO28" s="162"/>
+      <c r="FP28" s="162"/>
+      <c r="FQ28" s="162"/>
+      <c r="FR28" s="162"/>
+      <c r="FS28" s="162"/>
+      <c r="FT28" s="162"/>
+      <c r="FU28" s="162"/>
+      <c r="FV28" s="162"/>
+      <c r="FW28" s="162"/>
+      <c r="FX28" s="162"/>
+      <c r="FY28" s="162"/>
+      <c r="FZ28" s="162"/>
+      <c r="GA28" s="162"/>
+      <c r="GB28" s="162"/>
+      <c r="GC28" s="162"/>
+      <c r="GD28" s="162"/>
+      <c r="GE28" s="162"/>
+      <c r="GF28" s="162"/>
+      <c r="GG28" s="162"/>
+      <c r="GH28" s="162"/>
+      <c r="GI28" s="162"/>
+      <c r="GJ28" s="162"/>
+      <c r="GK28" s="162"/>
+      <c r="GL28" s="162"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="144"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="161"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="142"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4961,16 +4995,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="142"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -4982,6 +5016,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4995,28 +5051,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5043,14 +5077,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5243,11 +5277,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="209" t="s">
+      <c r="E27" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="210"/>
-      <c r="G27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="212"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5585,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5664,13 +5698,13 @@
         <v>160</v>
       </c>
       <c r="E5" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+        <v>218</v>
+      </c>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5681,12 +5715,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5825,12 +5859,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5841,12 +5875,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5857,12 +5891,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5873,12 +5907,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -5889,12 +5923,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -5905,12 +5939,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -5921,12 +5955,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -5937,12 +5971,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -5953,12 +5987,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -5969,12 +6003,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5985,12 +6019,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6001,12 +6035,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -6017,12 +6051,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -6033,12 +6067,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -6049,12 +6083,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -6065,12 +6099,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6081,12 +6115,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6097,12 +6131,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6113,12 +6147,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6129,12 +6163,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6145,12 +6179,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6161,12 +6195,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6177,12 +6211,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6193,12 +6227,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6209,12 +6243,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6225,12 +6259,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6241,12 +6275,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6257,23 +6291,32 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6289,23 +6332,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6331,7 +6365,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6343,7 +6377,7 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="22" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
@@ -6413,20 +6447,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="177" t="s">
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="178"/>
+      <c r="J4" s="179"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6437,10 +6471,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="186" t="s">
+      <c r="I5" s="187" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="187"/>
+      <c r="J5" s="188"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6451,8 +6485,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="190"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6463,8 +6497,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="190"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6475,8 +6509,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6487,8 +6521,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6499,8 +6533,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="192"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6511,10 +6545,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="178"/>
+      <c r="J11" s="179"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6525,10 +6559,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="180" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" s="181"/>
+      <c r="I12" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="J12" s="182"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6539,8 +6573,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="184"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6551,8 +6585,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6563,8 +6597,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="184"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6575,8 +6609,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="184"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6587,8 +6621,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6599,8 +6633,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6611,8 +6645,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6623,8 +6657,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="184"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6635,8 +6669,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6647,8 +6681,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="184"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6659,8 +6693,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="184"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6671,8 +6705,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="184"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6683,8 +6717,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="184"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6695,8 +6729,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="184"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6707,8 +6741,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="184"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6719,8 +6753,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6731,8 +6765,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="184"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6743,8 +6777,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6755,8 +6789,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="184"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6767,8 +6801,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="184"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6779,8 +6813,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6791,8 +6825,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6803,8 +6837,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="184"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6815,8 +6849,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="184"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6827,8 +6861,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6839,8 +6873,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="184"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6851,8 +6885,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="184"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6863,8 +6897,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="184"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6875,8 +6909,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="184"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6887,8 +6921,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="184"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6899,8 +6933,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6931,10 +6965,10 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B34"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6973,15 +7007,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="192" t="s">
+      <c r="H1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="193"/>
-      <c r="J1" s="194" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="195"/>
-      <c r="L1" s="196"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="196"/>
+      <c r="L1" s="197"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7009,16 +7043,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="H2" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="193"/>
-      <c r="J2" s="194" t="str">
+      <c r="I2" s="194"/>
+      <c r="J2" s="195" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo thống kê thời gian giao hàng</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="197"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7038,7 +7072,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>161</v>
@@ -8199,61 +8233,97 @@
       <c r="A35" s="33">
         <v>31</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="40"/>
+      <c r="B35" s="33">
+        <v>51</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="213" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="142" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="142"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="60"/>
+      <c r="K35" s="40"/>
       <c r="L35" s="40"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="32"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="142" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
         <v>32</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="40"/>
+      <c r="B36" s="33">
+        <v>51</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="35">
+        <v>9</v>
+      </c>
+      <c r="E36" s="213" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="142"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="60"/>
+      <c r="K36" s="40"/>
       <c r="L36" s="40"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="32"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="142"/>
+      <c r="P36" s="142" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
         <v>33</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="40"/>
+      <c r="B37" s="33">
+        <v>51</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="35">
+        <v>10</v>
+      </c>
+      <c r="E37" s="213" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="142" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="142"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="60"/>
+      <c r="K37" s="40"/>
       <c r="L37" s="40"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="32"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="142"/>
+      <c r="P37" s="142" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
@@ -8603,19 +8673,22 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25:O54 M24:N24">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24:N24 N25:O34 N38:O54">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I35 I38:I54">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G35:G54"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G38:G54"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H34 H38:H54">
       <formula1>"Caption,Textbox,DateTimePicker,GridColumn,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35:H37">
+      <formula1>"Caption,Textbox,DateTimePicker,Grid Column,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9593,7 +9666,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:J20"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9617,7 +9690,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="123"/>
@@ -9652,7 +9725,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
+      <c r="A2" s="204"/>
       <c r="B2" s="124"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9710,27 +9783,19 @@
       <c r="I4" s="171"/>
       <c r="J4" s="171"/>
     </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>162</v>
-      </c>
+      <c r="B5" s="33"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="127" t="s">
-        <v>134</v>
-      </c>
+      <c r="D5" s="127"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="197" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="198"/>
-      <c r="H5" s="201" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="202"/>
-      <c r="J5" s="203"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="200"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9740,11 +9805,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9754,11 +9819,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="203"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9768,11 +9833,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9782,11 +9847,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="203"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9796,11 +9861,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9810,11 +9875,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="200"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9824,11 +9889,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9838,11 +9903,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="203"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="200"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9852,11 +9917,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="200"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9866,11 +9931,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="203"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9880,11 +9945,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9894,11 +9959,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9908,11 +9973,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9922,11 +9987,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9936,11 +10001,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9950,11 +10015,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="203"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9966,9 +10031,9 @@
       <c r="E22" s="32"/>
       <c r="F22" s="165"/>
       <c r="G22" s="167"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="203"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9980,9 +10045,9 @@
       <c r="E23" s="32"/>
       <c r="F23" s="165"/>
       <c r="G23" s="167"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="203"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9994,9 +10059,9 @@
       <c r="E24" s="32"/>
       <c r="F24" s="165"/>
       <c r="G24" s="167"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="203"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -10008,9 +10073,9 @@
       <c r="E25" s="32"/>
       <c r="F25" s="165"/>
       <c r="G25" s="167"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="203"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -10022,9 +10087,9 @@
       <c r="E26" s="32"/>
       <c r="F26" s="165"/>
       <c r="G26" s="167"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="203"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -10036,9 +10101,9 @@
       <c r="E27" s="32"/>
       <c r="F27" s="165"/>
       <c r="G27" s="167"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="203"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -10050,9 +10115,9 @@
       <c r="E28" s="32"/>
       <c r="F28" s="165"/>
       <c r="G28" s="167"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -10064,9 +10129,9 @@
       <c r="E29" s="32"/>
       <c r="F29" s="165"/>
       <c r="G29" s="167"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="203"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -10078,9 +10143,9 @@
       <c r="E30" s="32"/>
       <c r="F30" s="165"/>
       <c r="G30" s="167"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -10092,9 +10157,9 @@
       <c r="E31" s="32"/>
       <c r="F31" s="165"/>
       <c r="G31" s="167"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="203"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -10106,9 +10171,9 @@
       <c r="E32" s="32"/>
       <c r="F32" s="165"/>
       <c r="G32" s="167"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="203"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -10127,9 +10192,9 @@
       <c r="E33" s="32"/>
       <c r="F33" s="165"/>
       <c r="G33" s="167"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -10148,9 +10213,9 @@
       <c r="E34" s="32"/>
       <c r="F34" s="165"/>
       <c r="G34" s="167"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="203"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -10169,9 +10234,9 @@
       <c r="E35" s="32"/>
       <c r="F35" s="165"/>
       <c r="G35" s="167"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="203"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -10190,9 +10255,9 @@
       <c r="E36" s="32"/>
       <c r="F36" s="165"/>
       <c r="G36" s="167"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="203"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -10211,9 +10276,9 @@
       <c r="E37" s="32"/>
       <c r="F37" s="165"/>
       <c r="G37" s="167"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="203"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -10232,9 +10297,9 @@
       <c r="E38" s="32"/>
       <c r="F38" s="165"/>
       <c r="G38" s="167"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="203"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -10253,9 +10318,9 @@
       <c r="E39" s="32"/>
       <c r="F39" s="165"/>
       <c r="G39" s="167"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="203"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -10274,9 +10339,9 @@
       <c r="E40" s="32"/>
       <c r="F40" s="165"/>
       <c r="G40" s="167"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -10295,9 +10360,9 @@
       <c r="E41" s="32"/>
       <c r="F41" s="165"/>
       <c r="G41" s="167"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="203"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -10316,9 +10381,9 @@
       <c r="E42" s="32"/>
       <c r="F42" s="165"/>
       <c r="G42" s="167"/>
-      <c r="H42" s="201"/>
-      <c r="I42" s="202"/>
-      <c r="J42" s="203"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -10337,9 +10402,9 @@
       <c r="E43" s="32"/>
       <c r="F43" s="165"/>
       <c r="G43" s="167"/>
-      <c r="H43" s="201"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="203"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="200"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -10358,9 +10423,9 @@
       <c r="E44" s="32"/>
       <c r="F44" s="165"/>
       <c r="G44" s="167"/>
-      <c r="H44" s="201"/>
-      <c r="I44" s="202"/>
-      <c r="J44" s="203"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="200"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -10379,9 +10444,9 @@
       <c r="E45" s="32"/>
       <c r="F45" s="165"/>
       <c r="G45" s="167"/>
-      <c r="H45" s="201"/>
-      <c r="I45" s="202"/>
-      <c r="J45" s="203"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="199"/>
+      <c r="J45" s="200"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -10400,9 +10465,9 @@
       <c r="E46" s="32"/>
       <c r="F46" s="165"/>
       <c r="G46" s="167"/>
-      <c r="H46" s="201"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="203"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10421,9 +10486,9 @@
       <c r="E47" s="32"/>
       <c r="F47" s="165"/>
       <c r="G47" s="167"/>
-      <c r="H47" s="201"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="203"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10442,9 +10507,9 @@
       <c r="E48" s="32"/>
       <c r="F48" s="165"/>
       <c r="G48" s="167"/>
-      <c r="H48" s="201"/>
-      <c r="I48" s="202"/>
-      <c r="J48" s="203"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="200"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10463,9 +10528,9 @@
       <c r="E49" s="32"/>
       <c r="F49" s="165"/>
       <c r="G49" s="167"/>
-      <c r="H49" s="201"/>
-      <c r="I49" s="202"/>
-      <c r="J49" s="203"/>
+      <c r="H49" s="198"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="200"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10484,9 +10549,9 @@
       <c r="E50" s="32"/>
       <c r="F50" s="165"/>
       <c r="G50" s="167"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="202"/>
-      <c r="J50" s="203"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="199"/>
+      <c r="J50" s="200"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10505,9 +10570,9 @@
       <c r="E51" s="32"/>
       <c r="F51" s="165"/>
       <c r="G51" s="167"/>
-      <c r="H51" s="201"/>
-      <c r="I51" s="202"/>
-      <c r="J51" s="203"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="199"/>
+      <c r="J51" s="200"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10526,9 +10591,9 @@
       <c r="E52" s="32"/>
       <c r="F52" s="165"/>
       <c r="G52" s="167"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="202"/>
-      <c r="J52" s="203"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10547,9 +10612,9 @@
       <c r="E53" s="32"/>
       <c r="F53" s="165"/>
       <c r="G53" s="167"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="202"/>
-      <c r="J53" s="203"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10568,9 +10633,9 @@
       <c r="E54" s="32"/>
       <c r="F54" s="165"/>
       <c r="G54" s="167"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="202"/>
-      <c r="J54" s="203"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="199"/>
+      <c r="J54" s="200"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10589,9 +10654,9 @@
       <c r="E55" s="32"/>
       <c r="F55" s="165"/>
       <c r="G55" s="167"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="202"/>
-      <c r="J55" s="203"/>
+      <c r="H55" s="198"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="200"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10610,9 +10675,9 @@
       <c r="E56" s="32"/>
       <c r="F56" s="165"/>
       <c r="G56" s="167"/>
-      <c r="H56" s="201"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="203"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="200"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10624,6 +10689,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10638,99 +10796,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10748,8 +10813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10791,11 +10856,11 @@
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="207" t="str">
+      <c r="J1" s="208" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="207"/>
+      <c r="K1" s="208"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10833,11 +10898,11 @@
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="207" t="str">
+      <c r="J2" s="208" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="207"/>
+      <c r="K2" s="208"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10868,7 +10933,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="140" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -10894,12 +10959,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="177" t="s">
+      <c r="K4" s="178" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="178"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="179"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10936,31 +11001,31 @@
         <v>167</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="J5" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="204" t="s">
+      <c r="K5" s="205" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q5" s="75" t="s">
         <v>217</v>
-      </c>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="141" t="s">
-        <v>220</v>
-      </c>
-      <c r="P5" s="141" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q5" s="75" t="s">
-        <v>222</v>
       </c>
       <c r="R5" s="74" t="s">
         <v>169</v>
       </c>
       <c r="S5" s="125" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="T5" s="63"/>
       <c r="U5" s="63"/>
@@ -10978,10 +11043,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="81"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="206"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="207"/>
       <c r="O6" s="86"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="75"/>
@@ -11003,10 +11068,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="81"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="206"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="207"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
       <c r="Q7" s="75"/>
@@ -11028,10 +11093,10 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="206"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="207"/>
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="75"/>
@@ -11053,10 +11118,10 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="206"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="207"/>
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="75"/>
@@ -11078,10 +11143,10 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="206"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="206"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="207"/>
       <c r="O10" s="87"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="75"/>
@@ -11103,10 +11168,10 @@
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="206"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="207"/>
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="75"/>
@@ -11128,10 +11193,10 @@
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="206"/>
+      <c r="K12" s="205"/>
+      <c r="L12" s="206"/>
+      <c r="M12" s="206"/>
+      <c r="N12" s="207"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="75"/>
@@ -11153,10 +11218,10 @@
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="206"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="206"/>
+      <c r="N13" s="207"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="75"/>
@@ -11178,10 +11243,10 @@
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="206"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="206"/>
+      <c r="M14" s="206"/>
+      <c r="N14" s="207"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="75"/>
@@ -11203,10 +11268,10 @@
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="206"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="207"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="75"/>
@@ -11228,10 +11293,10 @@
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="206"/>
+      <c r="K16" s="205"/>
+      <c r="L16" s="206"/>
+      <c r="M16" s="206"/>
+      <c r="N16" s="207"/>
       <c r="O16" s="71"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="75"/>
@@ -11253,10 +11318,10 @@
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="205"/>
-      <c r="N17" s="206"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="206"/>
+      <c r="M17" s="206"/>
+      <c r="N17" s="207"/>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="75"/>
@@ -11278,10 +11343,10 @@
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="206"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="206"/>
+      <c r="N18" s="207"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="75"/>
@@ -11303,10 +11368,10 @@
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="206"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="207"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="75"/>
@@ -11328,10 +11393,10 @@
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="206"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="206"/>
+      <c r="N20" s="207"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="75"/>
@@ -11353,10 +11418,10 @@
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="206"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="206"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="207"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="75"/>
@@ -11378,10 +11443,10 @@
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="206"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="206"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="207"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="75"/>
@@ -11403,10 +11468,10 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="206"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="206"/>
+      <c r="M23" s="206"/>
+      <c r="N23" s="207"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="75"/>
@@ -11428,10 +11493,10 @@
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="206"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="206"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="207"/>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="75"/>
@@ -11453,10 +11518,10 @@
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="205"/>
-      <c r="N25" s="206"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="207"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="75"/>
@@ -11478,10 +11543,10 @@
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="206"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="206"/>
+      <c r="N26" s="207"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="75"/>
@@ -11503,10 +11568,10 @@
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="206"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="206"/>
+      <c r="M27" s="206"/>
+      <c r="N27" s="207"/>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="75"/>
@@ -11528,10 +11593,10 @@
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="206"/>
+      <c r="K28" s="205"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="206"/>
+      <c r="N28" s="207"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="75"/>
@@ -11553,10 +11618,10 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="206"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="207"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="75"/>
@@ -11578,10 +11643,10 @@
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="206"/>
+      <c r="K30" s="205"/>
+      <c r="L30" s="206"/>
+      <c r="M30" s="206"/>
+      <c r="N30" s="207"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="75"/>
@@ -11603,10 +11668,10 @@
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="206"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="206"/>
+      <c r="M31" s="206"/>
+      <c r="N31" s="207"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="75"/>
@@ -11628,10 +11693,10 @@
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="206"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="206"/>
+      <c r="M32" s="206"/>
+      <c r="N32" s="207"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="75"/>
@@ -11653,10 +11718,10 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="206"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="206"/>
+      <c r="M33" s="206"/>
+      <c r="N33" s="207"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="75"/>
@@ -11678,10 +11743,10 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="205"/>
-      <c r="M34" s="205"/>
-      <c r="N34" s="206"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="206"/>
+      <c r="M34" s="206"/>
+      <c r="N34" s="207"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="75"/>
@@ -11703,10 +11768,10 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="206"/>
+      <c r="K35" s="205"/>
+      <c r="L35" s="206"/>
+      <c r="M35" s="206"/>
+      <c r="N35" s="207"/>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="75"/>
@@ -11728,10 +11793,10 @@
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="205"/>
-      <c r="M36" s="205"/>
-      <c r="N36" s="206"/>
+      <c r="K36" s="205"/>
+      <c r="L36" s="206"/>
+      <c r="M36" s="206"/>
+      <c r="N36" s="207"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="75"/>
@@ -11753,10 +11818,10 @@
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="206"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="206"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="207"/>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="75"/>
@@ -11778,10 +11843,10 @@
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="206"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="206"/>
+      <c r="M38" s="206"/>
+      <c r="N38" s="207"/>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="75"/>
@@ -11803,10 +11868,10 @@
       <c r="H39" s="62"/>
       <c r="I39" s="62"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="206"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="206"/>
+      <c r="N39" s="207"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="75"/>
@@ -11828,10 +11893,10 @@
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="205"/>
-      <c r="M40" s="205"/>
-      <c r="N40" s="206"/>
+      <c r="K40" s="205"/>
+      <c r="L40" s="206"/>
+      <c r="M40" s="206"/>
+      <c r="N40" s="207"/>
       <c r="O40" s="73"/>
       <c r="P40" s="73"/>
       <c r="Q40" s="75"/>
@@ -11853,10 +11918,10 @@
       <c r="H41" s="62"/>
       <c r="I41" s="62"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="206"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="206"/>
+      <c r="M41" s="206"/>
+      <c r="N41" s="207"/>
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="75"/>
@@ -11878,10 +11943,10 @@
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="205"/>
-      <c r="M42" s="205"/>
-      <c r="N42" s="206"/>
+      <c r="K42" s="205"/>
+      <c r="L42" s="206"/>
+      <c r="M42" s="206"/>
+      <c r="N42" s="207"/>
       <c r="O42" s="73"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="75"/>
@@ -11903,10 +11968,10 @@
       <c r="H43" s="62"/>
       <c r="I43" s="62"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="204"/>
-      <c r="L43" s="205"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="206"/>
+      <c r="K43" s="205"/>
+      <c r="L43" s="206"/>
+      <c r="M43" s="206"/>
+      <c r="N43" s="207"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="75"/>
@@ -11928,10 +11993,10 @@
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="204"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="206"/>
+      <c r="K44" s="205"/>
+      <c r="L44" s="206"/>
+      <c r="M44" s="206"/>
+      <c r="N44" s="207"/>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="75"/>
@@ -11953,10 +12018,10 @@
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="204"/>
-      <c r="L45" s="205"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="206"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="206"/>
+      <c r="M45" s="206"/>
+      <c r="N45" s="207"/>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="75"/>
@@ -11978,10 +12043,10 @@
       <c r="H46" s="62"/>
       <c r="I46" s="62"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="204"/>
-      <c r="L46" s="205"/>
-      <c r="M46" s="205"/>
-      <c r="N46" s="206"/>
+      <c r="K46" s="205"/>
+      <c r="L46" s="206"/>
+      <c r="M46" s="206"/>
+      <c r="N46" s="207"/>
       <c r="O46" s="73"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="75"/>
@@ -12003,10 +12068,10 @@
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="204"/>
-      <c r="L47" s="205"/>
-      <c r="M47" s="205"/>
-      <c r="N47" s="206"/>
+      <c r="K47" s="205"/>
+      <c r="L47" s="206"/>
+      <c r="M47" s="206"/>
+      <c r="N47" s="207"/>
       <c r="O47" s="73"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="75"/>
@@ -12028,10 +12093,10 @@
       <c r="H48" s="62"/>
       <c r="I48" s="62"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="205"/>
-      <c r="M48" s="205"/>
-      <c r="N48" s="206"/>
+      <c r="K48" s="205"/>
+      <c r="L48" s="206"/>
+      <c r="M48" s="206"/>
+      <c r="N48" s="207"/>
       <c r="O48" s="73"/>
       <c r="P48" s="73"/>
       <c r="Q48" s="75"/>
@@ -12053,10 +12118,10 @@
       <c r="H49" s="62"/>
       <c r="I49" s="62"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="204"/>
-      <c r="L49" s="205"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="206"/>
+      <c r="K49" s="205"/>
+      <c r="L49" s="206"/>
+      <c r="M49" s="206"/>
+      <c r="N49" s="207"/>
       <c r="O49" s="73"/>
       <c r="P49" s="73"/>
       <c r="Q49" s="75"/>
@@ -12078,10 +12143,10 @@
       <c r="H50" s="62"/>
       <c r="I50" s="62"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="204"/>
-      <c r="L50" s="205"/>
-      <c r="M50" s="205"/>
-      <c r="N50" s="206"/>
+      <c r="K50" s="205"/>
+      <c r="L50" s="206"/>
+      <c r="M50" s="206"/>
+      <c r="N50" s="207"/>
       <c r="O50" s="73"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="75"/>
@@ -12103,10 +12168,10 @@
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="204"/>
-      <c r="L51" s="205"/>
-      <c r="M51" s="205"/>
-      <c r="N51" s="206"/>
+      <c r="K51" s="205"/>
+      <c r="L51" s="206"/>
+      <c r="M51" s="206"/>
+      <c r="N51" s="207"/>
       <c r="O51" s="73"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="75"/>
@@ -12128,10 +12193,10 @@
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="204"/>
-      <c r="L52" s="205"/>
-      <c r="M52" s="205"/>
-      <c r="N52" s="206"/>
+      <c r="K52" s="205"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="206"/>
+      <c r="N52" s="207"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="75"/>
@@ -12153,10 +12218,10 @@
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="204"/>
-      <c r="L53" s="205"/>
-      <c r="M53" s="205"/>
-      <c r="N53" s="206"/>
+      <c r="K53" s="205"/>
+      <c r="L53" s="206"/>
+      <c r="M53" s="206"/>
+      <c r="N53" s="207"/>
       <c r="O53" s="73"/>
       <c r="P53" s="73"/>
       <c r="Q53" s="75"/>
@@ -12178,10 +12243,10 @@
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="204"/>
-      <c r="L54" s="205"/>
-      <c r="M54" s="205"/>
-      <c r="N54" s="206"/>
+      <c r="K54" s="205"/>
+      <c r="L54" s="206"/>
+      <c r="M54" s="206"/>
+      <c r="N54" s="207"/>
       <c r="O54" s="73"/>
       <c r="P54" s="73"/>
       <c r="Q54" s="75"/>
@@ -12203,10 +12268,10 @@
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="204"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="206"/>
+      <c r="K55" s="205"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="207"/>
       <c r="O55" s="73"/>
       <c r="P55" s="73"/>
       <c r="Q55" s="75"/>
@@ -12228,10 +12293,10 @@
       <c r="H56" s="62"/>
       <c r="I56" s="62"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="204"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="206"/>
+      <c r="K56" s="205"/>
+      <c r="L56" s="206"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="207"/>
       <c r="O56" s="73"/>
       <c r="P56" s="73"/>
       <c r="Q56" s="75"/>
@@ -12253,10 +12318,10 @@
       <c r="H57" s="62"/>
       <c r="I57" s="62"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="204"/>
-      <c r="L57" s="205"/>
-      <c r="M57" s="205"/>
-      <c r="N57" s="206"/>
+      <c r="K57" s="205"/>
+      <c r="L57" s="206"/>
+      <c r="M57" s="206"/>
+      <c r="N57" s="207"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73"/>
       <c r="Q57" s="75"/>
@@ -12278,10 +12343,10 @@
       <c r="H58" s="62"/>
       <c r="I58" s="62"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="204"/>
-      <c r="L58" s="205"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="206"/>
+      <c r="K58" s="205"/>
+      <c r="L58" s="206"/>
+      <c r="M58" s="206"/>
+      <c r="N58" s="207"/>
       <c r="O58" s="73"/>
       <c r="P58" s="73"/>
       <c r="Q58" s="75"/>
@@ -12303,10 +12368,10 @@
       <c r="H59" s="62"/>
       <c r="I59" s="62"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="204"/>
-      <c r="L59" s="205"/>
-      <c r="M59" s="205"/>
-      <c r="N59" s="206"/>
+      <c r="K59" s="205"/>
+      <c r="L59" s="206"/>
+      <c r="M59" s="206"/>
+      <c r="N59" s="207"/>
       <c r="O59" s="73"/>
       <c r="P59" s="73"/>
       <c r="Q59" s="75"/>
@@ -12328,10 +12393,10 @@
       <c r="H60" s="62"/>
       <c r="I60" s="62"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="204"/>
-      <c r="L60" s="205"/>
-      <c r="M60" s="205"/>
-      <c r="N60" s="206"/>
+      <c r="K60" s="205"/>
+      <c r="L60" s="206"/>
+      <c r="M60" s="206"/>
+      <c r="N60" s="207"/>
       <c r="O60" s="73"/>
       <c r="P60" s="73"/>
       <c r="Q60" s="75"/>
@@ -12353,10 +12418,10 @@
       <c r="H61" s="62"/>
       <c r="I61" s="62"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="204"/>
-      <c r="L61" s="205"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="206"/>
+      <c r="K61" s="205"/>
+      <c r="L61" s="206"/>
+      <c r="M61" s="206"/>
+      <c r="N61" s="207"/>
       <c r="O61" s="73"/>
       <c r="P61" s="73"/>
       <c r="Q61" s="75"/>
@@ -12378,10 +12443,10 @@
       <c r="H62" s="62"/>
       <c r="I62" s="62"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="204"/>
-      <c r="L62" s="205"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="206"/>
+      <c r="K62" s="205"/>
+      <c r="L62" s="206"/>
+      <c r="M62" s="206"/>
+      <c r="N62" s="207"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="75"/>
@@ -12403,10 +12468,10 @@
       <c r="H63" s="62"/>
       <c r="I63" s="62"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="204"/>
-      <c r="L63" s="205"/>
-      <c r="M63" s="205"/>
-      <c r="N63" s="206"/>
+      <c r="K63" s="205"/>
+      <c r="L63" s="206"/>
+      <c r="M63" s="206"/>
+      <c r="N63" s="207"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="75"/>
@@ -12428,10 +12493,10 @@
       <c r="H64" s="62"/>
       <c r="I64" s="62"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="204"/>
-      <c r="L64" s="205"/>
-      <c r="M64" s="205"/>
-      <c r="N64" s="206"/>
+      <c r="K64" s="205"/>
+      <c r="L64" s="206"/>
+      <c r="M64" s="206"/>
+      <c r="N64" s="207"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="75"/>
@@ -12451,10 +12516,10 @@
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="204"/>
-      <c r="L65" s="205"/>
-      <c r="M65" s="205"/>
-      <c r="N65" s="206"/>
+      <c r="K65" s="205"/>
+      <c r="L65" s="206"/>
+      <c r="M65" s="206"/>
+      <c r="N65" s="207"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="75"/>
@@ -12474,10 +12539,10 @@
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="204"/>
-      <c r="L66" s="205"/>
-      <c r="M66" s="205"/>
-      <c r="N66" s="206"/>
+      <c r="K66" s="205"/>
+      <c r="L66" s="206"/>
+      <c r="M66" s="206"/>
+      <c r="N66" s="207"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="75"/>
@@ -12497,10 +12562,10 @@
       <c r="H67" s="62"/>
       <c r="I67" s="62"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="204"/>
-      <c r="L67" s="205"/>
-      <c r="M67" s="205"/>
-      <c r="N67" s="206"/>
+      <c r="K67" s="205"/>
+      <c r="L67" s="206"/>
+      <c r="M67" s="206"/>
+      <c r="N67" s="207"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="75"/>
@@ -12520,10 +12585,10 @@
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="204"/>
-      <c r="L68" s="205"/>
-      <c r="M68" s="205"/>
-      <c r="N68" s="206"/>
+      <c r="K68" s="205"/>
+      <c r="L68" s="206"/>
+      <c r="M68" s="206"/>
+      <c r="N68" s="207"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="75"/>
@@ -12543,10 +12608,10 @@
       <c r="H69" s="62"/>
       <c r="I69" s="62"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="204"/>
-      <c r="L69" s="205"/>
-      <c r="M69" s="205"/>
-      <c r="N69" s="206"/>
+      <c r="K69" s="205"/>
+      <c r="L69" s="206"/>
+      <c r="M69" s="206"/>
+      <c r="N69" s="207"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="75"/>
@@ -12566,10 +12631,10 @@
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="204"/>
-      <c r="L70" s="205"/>
-      <c r="M70" s="205"/>
-      <c r="N70" s="206"/>
+      <c r="K70" s="205"/>
+      <c r="L70" s="206"/>
+      <c r="M70" s="206"/>
+      <c r="N70" s="207"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="75"/>
@@ -12589,10 +12654,10 @@
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="204"/>
-      <c r="L71" s="205"/>
-      <c r="M71" s="205"/>
-      <c r="N71" s="206"/>
+      <c r="K71" s="205"/>
+      <c r="L71" s="206"/>
+      <c r="M71" s="206"/>
+      <c r="N71" s="207"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="75"/>
@@ -12612,10 +12677,10 @@
       <c r="H72" s="62"/>
       <c r="I72" s="62"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="204"/>
-      <c r="L72" s="205"/>
-      <c r="M72" s="205"/>
-      <c r="N72" s="206"/>
+      <c r="K72" s="205"/>
+      <c r="L72" s="206"/>
+      <c r="M72" s="206"/>
+      <c r="N72" s="207"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="75"/>
@@ -12635,10 +12700,10 @@
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="204"/>
-      <c r="L73" s="205"/>
-      <c r="M73" s="205"/>
-      <c r="N73" s="206"/>
+      <c r="K73" s="205"/>
+      <c r="L73" s="206"/>
+      <c r="M73" s="206"/>
+      <c r="N73" s="207"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="75"/>
@@ -12658,10 +12723,10 @@
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="204"/>
-      <c r="L74" s="205"/>
-      <c r="M74" s="205"/>
-      <c r="N74" s="206"/>
+      <c r="K74" s="205"/>
+      <c r="L74" s="206"/>
+      <c r="M74" s="206"/>
+      <c r="N74" s="207"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="75"/>
@@ -12681,10 +12746,10 @@
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="204"/>
-      <c r="L75" s="205"/>
-      <c r="M75" s="205"/>
-      <c r="N75" s="206"/>
+      <c r="K75" s="205"/>
+      <c r="L75" s="206"/>
+      <c r="M75" s="206"/>
+      <c r="N75" s="207"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="75"/>
@@ -12704,10 +12769,10 @@
       <c r="H76" s="62"/>
       <c r="I76" s="62"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="204"/>
-      <c r="L76" s="205"/>
-      <c r="M76" s="205"/>
-      <c r="N76" s="206"/>
+      <c r="K76" s="205"/>
+      <c r="L76" s="206"/>
+      <c r="M76" s="206"/>
+      <c r="N76" s="207"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="75"/>
@@ -12727,10 +12792,10 @@
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="204"/>
-      <c r="L77" s="205"/>
-      <c r="M77" s="205"/>
-      <c r="N77" s="206"/>
+      <c r="K77" s="205"/>
+      <c r="L77" s="206"/>
+      <c r="M77" s="206"/>
+      <c r="N77" s="207"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="75"/>
@@ -12750,10 +12815,10 @@
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="204"/>
-      <c r="L78" s="205"/>
-      <c r="M78" s="205"/>
-      <c r="N78" s="206"/>
+      <c r="K78" s="205"/>
+      <c r="L78" s="206"/>
+      <c r="M78" s="206"/>
+      <c r="N78" s="207"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="75"/>
@@ -12773,10 +12838,10 @@
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="204"/>
-      <c r="L79" s="205"/>
-      <c r="M79" s="205"/>
-      <c r="N79" s="206"/>
+      <c r="K79" s="205"/>
+      <c r="L79" s="206"/>
+      <c r="M79" s="206"/>
+      <c r="N79" s="207"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="75"/>
@@ -12796,10 +12861,10 @@
       <c r="H80" s="62"/>
       <c r="I80" s="62"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="204"/>
-      <c r="L80" s="205"/>
-      <c r="M80" s="205"/>
-      <c r="N80" s="206"/>
+      <c r="K80" s="205"/>
+      <c r="L80" s="206"/>
+      <c r="M80" s="206"/>
+      <c r="N80" s="207"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="75"/>
@@ -12819,10 +12884,10 @@
       <c r="H81" s="62"/>
       <c r="I81" s="62"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="204"/>
-      <c r="L81" s="205"/>
-      <c r="M81" s="205"/>
-      <c r="N81" s="206"/>
+      <c r="K81" s="205"/>
+      <c r="L81" s="206"/>
+      <c r="M81" s="206"/>
+      <c r="N81" s="207"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="75"/>
@@ -12842,10 +12907,10 @@
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="204"/>
-      <c r="L82" s="205"/>
-      <c r="M82" s="205"/>
-      <c r="N82" s="206"/>
+      <c r="K82" s="205"/>
+      <c r="L82" s="206"/>
+      <c r="M82" s="206"/>
+      <c r="N82" s="207"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="75"/>
@@ -12865,10 +12930,10 @@
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="204"/>
-      <c r="L83" s="205"/>
-      <c r="M83" s="205"/>
-      <c r="N83" s="206"/>
+      <c r="K83" s="205"/>
+      <c r="L83" s="206"/>
+      <c r="M83" s="206"/>
+      <c r="N83" s="207"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="75"/>
@@ -12888,10 +12953,10 @@
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="204"/>
-      <c r="L84" s="205"/>
-      <c r="M84" s="205"/>
-      <c r="N84" s="206"/>
+      <c r="K84" s="205"/>
+      <c r="L84" s="206"/>
+      <c r="M84" s="206"/>
+      <c r="N84" s="207"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="75"/>
@@ -12911,10 +12976,10 @@
       <c r="H85" s="62"/>
       <c r="I85" s="62"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="204"/>
-      <c r="L85" s="205"/>
-      <c r="M85" s="205"/>
-      <c r="N85" s="206"/>
+      <c r="K85" s="205"/>
+      <c r="L85" s="206"/>
+      <c r="M85" s="206"/>
+      <c r="N85" s="207"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="75"/>
@@ -12934,10 +12999,10 @@
       <c r="H86" s="62"/>
       <c r="I86" s="62"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="204"/>
-      <c r="L86" s="205"/>
-      <c r="M86" s="205"/>
-      <c r="N86" s="206"/>
+      <c r="K86" s="205"/>
+      <c r="L86" s="206"/>
+      <c r="M86" s="206"/>
+      <c r="N86" s="207"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="75"/>
@@ -12957,10 +13022,10 @@
       <c r="H87" s="62"/>
       <c r="I87" s="62"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="204"/>
-      <c r="L87" s="205"/>
-      <c r="M87" s="205"/>
-      <c r="N87" s="206"/>
+      <c r="K87" s="205"/>
+      <c r="L87" s="206"/>
+      <c r="M87" s="206"/>
+      <c r="N87" s="207"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="75"/>
@@ -12980,10 +13045,10 @@
       <c r="H88" s="62"/>
       <c r="I88" s="62"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="204"/>
-      <c r="L88" s="205"/>
-      <c r="M88" s="205"/>
-      <c r="N88" s="206"/>
+      <c r="K88" s="205"/>
+      <c r="L88" s="206"/>
+      <c r="M88" s="206"/>
+      <c r="N88" s="207"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="75"/>
@@ -13003,10 +13068,10 @@
       <c r="H89" s="62"/>
       <c r="I89" s="62"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="204"/>
-      <c r="L89" s="205"/>
-      <c r="M89" s="205"/>
-      <c r="N89" s="206"/>
+      <c r="K89" s="205"/>
+      <c r="L89" s="206"/>
+      <c r="M89" s="206"/>
+      <c r="N89" s="207"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="75"/>
@@ -13026,10 +13091,10 @@
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="204"/>
-      <c r="L90" s="205"/>
-      <c r="M90" s="205"/>
-      <c r="N90" s="206"/>
+      <c r="K90" s="205"/>
+      <c r="L90" s="206"/>
+      <c r="M90" s="206"/>
+      <c r="N90" s="207"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="75"/>
@@ -13049,10 +13114,10 @@
       <c r="H91" s="62"/>
       <c r="I91" s="62"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="204"/>
-      <c r="L91" s="205"/>
-      <c r="M91" s="205"/>
-      <c r="N91" s="206"/>
+      <c r="K91" s="205"/>
+      <c r="L91" s="206"/>
+      <c r="M91" s="206"/>
+      <c r="N91" s="207"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="75"/>
@@ -13072,10 +13137,10 @@
       <c r="H92" s="62"/>
       <c r="I92" s="62"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="204"/>
-      <c r="L92" s="205"/>
-      <c r="M92" s="205"/>
-      <c r="N92" s="206"/>
+      <c r="K92" s="205"/>
+      <c r="L92" s="206"/>
+      <c r="M92" s="206"/>
+      <c r="N92" s="207"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="75"/>
@@ -13095,10 +13160,10 @@
       <c r="H93" s="62"/>
       <c r="I93" s="62"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="204"/>
-      <c r="L93" s="205"/>
-      <c r="M93" s="205"/>
-      <c r="N93" s="206"/>
+      <c r="K93" s="205"/>
+      <c r="L93" s="206"/>
+      <c r="M93" s="206"/>
+      <c r="N93" s="207"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="75"/>
@@ -13118,10 +13183,10 @@
       <c r="H94" s="62"/>
       <c r="I94" s="62"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="204"/>
-      <c r="L94" s="205"/>
-      <c r="M94" s="205"/>
-      <c r="N94" s="206"/>
+      <c r="K94" s="205"/>
+      <c r="L94" s="206"/>
+      <c r="M94" s="206"/>
+      <c r="N94" s="207"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="75"/>
@@ -13134,47 +13199,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -13191,43 +13252,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13256,8 +13321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13364,7 +13429,9 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>231</v>
+      </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -13443,7 +13510,9 @@
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="79"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="43" t="s">
+        <v>233</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -13527,9 +13596,7 @@
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
-      <c r="C20" s="85" t="s">
-        <v>219</v>
-      </c>
+      <c r="C20" s="85"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
@@ -13601,7 +13668,9 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="85" t="s">
+        <v>232</v>
+      </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -14361,7 +14430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMR30301_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMR30301_Thong ke thoi gian giao hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2327,33 +2327,6 @@
     <t>CRMR30301</t>
   </si>
   <si>
-    <t xml:space="preserve">EXEC CRMP30301(
- @DivisionID       VARCHAR(50),  
-  @DivisionIDList    NVARCHAR(2000), 
-  @FromDate         DATETIME,
-  @ToDate           DATETIME,
-  @IsDate           TINYINT,
-@Period  Nvarchar(max),
-@FromAccountID       Varchar(50),
-  @ToAccountID         Varchar(50,
-  @UserID  VARCHAR(50))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
-@Period
-@FromAccountID @ToAccountID 
-@UserID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
-@@Period
-@@FromAccountID @@ToAccountID
-Biến môi trường
-</t>
-  </si>
-  <si>
     <t>Click  button In</t>
   </si>
   <si>
@@ -2410,6 +2383,29 @@
   </si>
   <si>
     <t>Tham khảo sheet Code Standar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC CRMP30301(
+ @DivisionID       VARCHAR(50),  
+  @DivisionIDList    NVARCHAR(2000), 
+  @FromDate         DATETIME,
+  @ToDate           DATETIME,
+ @FromAccountID       Varchar(50),
+  @ToAccountID         Varchar(50,
+  @UserID  VARCHAR(50))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   
+@FromAccountID @ToAccountID 
+@UserID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   
+@@FromAccountID @@ToAccountID
+Biến môi trường
+</t>
   </si>
 </sst>
 </file>
@@ -2980,7 +2976,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3286,177 +3282,174 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3506,6 +3499,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3514,18 +3519,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3551,7 +3544,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4478,65 +4489,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="148"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="150" t="s">
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="149" t="s">
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149" t="s">
+      <c r="H1" s="154"/>
+      <c r="I1" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="149"/>
+      <c r="J1" s="154"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="149" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="145" t="s">
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="150" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="151"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4547,56 +4558,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="146"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4607,384 +4618,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="146"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="147"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="159"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="147"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="162"/>
-      <c r="AJ28" s="162"/>
-      <c r="AK28" s="162"/>
-      <c r="AL28" s="162"/>
-      <c r="AM28" s="162"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="162"/>
-      <c r="AP28" s="162"/>
-      <c r="AQ28" s="162"/>
-      <c r="AR28" s="162"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="162"/>
-      <c r="AU28" s="162"/>
-      <c r="AV28" s="162"/>
-      <c r="AW28" s="162"/>
-      <c r="AX28" s="162"/>
-      <c r="AY28" s="162"/>
-      <c r="AZ28" s="162"/>
-      <c r="BA28" s="162"/>
-      <c r="BB28" s="162"/>
-      <c r="BC28" s="162"/>
-      <c r="BD28" s="162"/>
-      <c r="BE28" s="162"/>
-      <c r="BF28" s="162"/>
-      <c r="BG28" s="162"/>
-      <c r="BH28" s="162"/>
-      <c r="BI28" s="162"/>
-      <c r="BJ28" s="162"/>
-      <c r="BK28" s="162"/>
-      <c r="BL28" s="162"/>
-      <c r="BM28" s="162"/>
-      <c r="BN28" s="162"/>
-      <c r="BO28" s="162"/>
-      <c r="BP28" s="162"/>
-      <c r="BQ28" s="162"/>
-      <c r="BR28" s="162"/>
-      <c r="BS28" s="162"/>
-      <c r="BT28" s="162"/>
-      <c r="BU28" s="162"/>
-      <c r="BV28" s="162"/>
-      <c r="BW28" s="162"/>
-      <c r="BX28" s="162"/>
-      <c r="BY28" s="162"/>
-      <c r="BZ28" s="162"/>
-      <c r="CA28" s="162"/>
-      <c r="CB28" s="162"/>
-      <c r="CC28" s="162"/>
-      <c r="CD28" s="162"/>
-      <c r="CE28" s="162"/>
-      <c r="CF28" s="162"/>
-      <c r="CG28" s="162"/>
-      <c r="CH28" s="162"/>
-      <c r="CI28" s="162"/>
-      <c r="CJ28" s="162"/>
-      <c r="CK28" s="162"/>
-      <c r="CL28" s="162"/>
-      <c r="CM28" s="162"/>
-      <c r="CN28" s="162"/>
-      <c r="CO28" s="162"/>
-      <c r="CP28" s="162"/>
-      <c r="CQ28" s="162"/>
-      <c r="CR28" s="162"/>
-      <c r="CS28" s="162"/>
-      <c r="CT28" s="162"/>
-      <c r="CU28" s="162"/>
-      <c r="CV28" s="162"/>
-      <c r="CW28" s="162"/>
-      <c r="CX28" s="162"/>
-      <c r="CY28" s="162"/>
-      <c r="CZ28" s="162"/>
-      <c r="DA28" s="162"/>
-      <c r="DB28" s="162"/>
-      <c r="DC28" s="162"/>
-      <c r="DD28" s="162"/>
-      <c r="DE28" s="162"/>
-      <c r="DF28" s="162"/>
-      <c r="DG28" s="162"/>
-      <c r="DH28" s="162"/>
-      <c r="DI28" s="162"/>
-      <c r="DJ28" s="162"/>
-      <c r="DK28" s="162"/>
-      <c r="DL28" s="162"/>
-      <c r="DM28" s="162"/>
-      <c r="DN28" s="162"/>
-      <c r="DO28" s="162"/>
-      <c r="DP28" s="162"/>
-      <c r="DQ28" s="162"/>
-      <c r="DR28" s="162"/>
-      <c r="DS28" s="162"/>
-      <c r="DT28" s="162"/>
-      <c r="DU28" s="162"/>
-      <c r="DV28" s="162"/>
-      <c r="DW28" s="162"/>
-      <c r="DX28" s="162"/>
-      <c r="DY28" s="162"/>
-      <c r="DZ28" s="162"/>
-      <c r="EA28" s="162"/>
-      <c r="EB28" s="162"/>
-      <c r="EC28" s="162"/>
-      <c r="ED28" s="162"/>
-      <c r="EE28" s="162"/>
-      <c r="EF28" s="162"/>
-      <c r="EG28" s="162"/>
-      <c r="EH28" s="162"/>
-      <c r="EI28" s="162"/>
-      <c r="EJ28" s="162"/>
-      <c r="EK28" s="162"/>
-      <c r="EL28" s="162"/>
-      <c r="EM28" s="162"/>
-      <c r="EN28" s="162"/>
-      <c r="EO28" s="162"/>
-      <c r="EP28" s="162"/>
-      <c r="EQ28" s="162"/>
-      <c r="ER28" s="162"/>
-      <c r="ES28" s="162"/>
-      <c r="ET28" s="162"/>
-      <c r="EU28" s="162"/>
-      <c r="EV28" s="162"/>
-      <c r="EW28" s="162"/>
-      <c r="EX28" s="162"/>
-      <c r="EY28" s="162"/>
-      <c r="EZ28" s="162"/>
-      <c r="FA28" s="162"/>
-      <c r="FB28" s="162"/>
-      <c r="FC28" s="162"/>
-      <c r="FD28" s="162"/>
-      <c r="FE28" s="162"/>
-      <c r="FF28" s="162"/>
-      <c r="FG28" s="162"/>
-      <c r="FH28" s="162"/>
-      <c r="FI28" s="162"/>
-      <c r="FJ28" s="162"/>
-      <c r="FK28" s="162"/>
-      <c r="FL28" s="162"/>
-      <c r="FM28" s="162"/>
-      <c r="FN28" s="162"/>
-      <c r="FO28" s="162"/>
-      <c r="FP28" s="162"/>
-      <c r="FQ28" s="162"/>
-      <c r="FR28" s="162"/>
-      <c r="FS28" s="162"/>
-      <c r="FT28" s="162"/>
-      <c r="FU28" s="162"/>
-      <c r="FV28" s="162"/>
-      <c r="FW28" s="162"/>
-      <c r="FX28" s="162"/>
-      <c r="FY28" s="162"/>
-      <c r="FZ28" s="162"/>
-      <c r="GA28" s="162"/>
-      <c r="GB28" s="162"/>
-      <c r="GC28" s="162"/>
-      <c r="GD28" s="162"/>
-      <c r="GE28" s="162"/>
-      <c r="GF28" s="162"/>
-      <c r="GG28" s="162"/>
-      <c r="GH28" s="162"/>
-      <c r="GI28" s="162"/>
-      <c r="GJ28" s="162"/>
-      <c r="GK28" s="162"/>
-      <c r="GL28" s="162"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="143"/>
+      <c r="W28" s="143"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="143"/>
+      <c r="Z28" s="143"/>
+      <c r="AA28" s="143"/>
+      <c r="AB28" s="143"/>
+      <c r="AC28" s="143"/>
+      <c r="AD28" s="143"/>
+      <c r="AE28" s="143"/>
+      <c r="AF28" s="143"/>
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="143"/>
+      <c r="AI28" s="143"/>
+      <c r="AJ28" s="143"/>
+      <c r="AK28" s="143"/>
+      <c r="AL28" s="143"/>
+      <c r="AM28" s="143"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="143"/>
+      <c r="AP28" s="143"/>
+      <c r="AQ28" s="143"/>
+      <c r="AR28" s="143"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="143"/>
+      <c r="AU28" s="143"/>
+      <c r="AV28" s="143"/>
+      <c r="AW28" s="143"/>
+      <c r="AX28" s="143"/>
+      <c r="AY28" s="143"/>
+      <c r="AZ28" s="143"/>
+      <c r="BA28" s="143"/>
+      <c r="BB28" s="143"/>
+      <c r="BC28" s="143"/>
+      <c r="BD28" s="143"/>
+      <c r="BE28" s="143"/>
+      <c r="BF28" s="143"/>
+      <c r="BG28" s="143"/>
+      <c r="BH28" s="143"/>
+      <c r="BI28" s="143"/>
+      <c r="BJ28" s="143"/>
+      <c r="BK28" s="143"/>
+      <c r="BL28" s="143"/>
+      <c r="BM28" s="143"/>
+      <c r="BN28" s="143"/>
+      <c r="BO28" s="143"/>
+      <c r="BP28" s="143"/>
+      <c r="BQ28" s="143"/>
+      <c r="BR28" s="143"/>
+      <c r="BS28" s="143"/>
+      <c r="BT28" s="143"/>
+      <c r="BU28" s="143"/>
+      <c r="BV28" s="143"/>
+      <c r="BW28" s="143"/>
+      <c r="BX28" s="143"/>
+      <c r="BY28" s="143"/>
+      <c r="BZ28" s="143"/>
+      <c r="CA28" s="143"/>
+      <c r="CB28" s="143"/>
+      <c r="CC28" s="143"/>
+      <c r="CD28" s="143"/>
+      <c r="CE28" s="143"/>
+      <c r="CF28" s="143"/>
+      <c r="CG28" s="143"/>
+      <c r="CH28" s="143"/>
+      <c r="CI28" s="143"/>
+      <c r="CJ28" s="143"/>
+      <c r="CK28" s="143"/>
+      <c r="CL28" s="143"/>
+      <c r="CM28" s="143"/>
+      <c r="CN28" s="143"/>
+      <c r="CO28" s="143"/>
+      <c r="CP28" s="143"/>
+      <c r="CQ28" s="143"/>
+      <c r="CR28" s="143"/>
+      <c r="CS28" s="143"/>
+      <c r="CT28" s="143"/>
+      <c r="CU28" s="143"/>
+      <c r="CV28" s="143"/>
+      <c r="CW28" s="143"/>
+      <c r="CX28" s="143"/>
+      <c r="CY28" s="143"/>
+      <c r="CZ28" s="143"/>
+      <c r="DA28" s="143"/>
+      <c r="DB28" s="143"/>
+      <c r="DC28" s="143"/>
+      <c r="DD28" s="143"/>
+      <c r="DE28" s="143"/>
+      <c r="DF28" s="143"/>
+      <c r="DG28" s="143"/>
+      <c r="DH28" s="143"/>
+      <c r="DI28" s="143"/>
+      <c r="DJ28" s="143"/>
+      <c r="DK28" s="143"/>
+      <c r="DL28" s="143"/>
+      <c r="DM28" s="143"/>
+      <c r="DN28" s="143"/>
+      <c r="DO28" s="143"/>
+      <c r="DP28" s="143"/>
+      <c r="DQ28" s="143"/>
+      <c r="DR28" s="143"/>
+      <c r="DS28" s="143"/>
+      <c r="DT28" s="143"/>
+      <c r="DU28" s="143"/>
+      <c r="DV28" s="143"/>
+      <c r="DW28" s="143"/>
+      <c r="DX28" s="143"/>
+      <c r="DY28" s="143"/>
+      <c r="DZ28" s="143"/>
+      <c r="EA28" s="143"/>
+      <c r="EB28" s="143"/>
+      <c r="EC28" s="143"/>
+      <c r="ED28" s="143"/>
+      <c r="EE28" s="143"/>
+      <c r="EF28" s="143"/>
+      <c r="EG28" s="143"/>
+      <c r="EH28" s="143"/>
+      <c r="EI28" s="143"/>
+      <c r="EJ28" s="143"/>
+      <c r="EK28" s="143"/>
+      <c r="EL28" s="143"/>
+      <c r="EM28" s="143"/>
+      <c r="EN28" s="143"/>
+      <c r="EO28" s="143"/>
+      <c r="EP28" s="143"/>
+      <c r="EQ28" s="143"/>
+      <c r="ER28" s="143"/>
+      <c r="ES28" s="143"/>
+      <c r="ET28" s="143"/>
+      <c r="EU28" s="143"/>
+      <c r="EV28" s="143"/>
+      <c r="EW28" s="143"/>
+      <c r="EX28" s="143"/>
+      <c r="EY28" s="143"/>
+      <c r="EZ28" s="143"/>
+      <c r="FA28" s="143"/>
+      <c r="FB28" s="143"/>
+      <c r="FC28" s="143"/>
+      <c r="FD28" s="143"/>
+      <c r="FE28" s="143"/>
+      <c r="FF28" s="143"/>
+      <c r="FG28" s="143"/>
+      <c r="FH28" s="143"/>
+      <c r="FI28" s="143"/>
+      <c r="FJ28" s="143"/>
+      <c r="FK28" s="143"/>
+      <c r="FL28" s="143"/>
+      <c r="FM28" s="143"/>
+      <c r="FN28" s="143"/>
+      <c r="FO28" s="143"/>
+      <c r="FP28" s="143"/>
+      <c r="FQ28" s="143"/>
+      <c r="FR28" s="143"/>
+      <c r="FS28" s="143"/>
+      <c r="FT28" s="143"/>
+      <c r="FU28" s="143"/>
+      <c r="FV28" s="143"/>
+      <c r="FW28" s="143"/>
+      <c r="FX28" s="143"/>
+      <c r="FY28" s="143"/>
+      <c r="FZ28" s="143"/>
+      <c r="GA28" s="143"/>
+      <c r="GB28" s="143"/>
+      <c r="GC28" s="143"/>
+      <c r="GD28" s="143"/>
+      <c r="GE28" s="143"/>
+      <c r="GF28" s="143"/>
+      <c r="GG28" s="143"/>
+      <c r="GH28" s="143"/>
+      <c r="GI28" s="143"/>
+      <c r="GJ28" s="143"/>
+      <c r="GK28" s="143"/>
+      <c r="GL28" s="143"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4995,16 +5006,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="164"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -5016,28 +5027,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5051,6 +5040,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5077,14 +5088,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5277,11 +5288,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="210" t="s">
+      <c r="E27" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="211"/>
-      <c r="G27" s="212"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="211"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5698,13 +5709,13 @@
         <v>160</v>
       </c>
       <c r="E5" s="173" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
+        <v>215</v>
+      </c>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5715,12 +5726,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5859,12 +5870,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5875,12 +5886,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5891,12 +5902,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5907,12 +5918,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -5923,12 +5934,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -5939,12 +5950,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -5955,12 +5966,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -5971,12 +5982,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -5987,12 +5998,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -6003,12 +6014,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6019,12 +6030,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6035,12 +6046,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -6051,12 +6062,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -6067,12 +6078,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -6083,12 +6094,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -6099,12 +6110,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6115,12 +6126,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6131,12 +6142,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6147,12 +6158,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6163,12 +6174,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6179,12 +6190,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6195,12 +6206,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6211,12 +6222,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6227,12 +6238,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6243,12 +6254,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6259,12 +6270,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6275,12 +6286,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6291,32 +6302,23 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6332,14 +6334,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6447,20 +6458,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="178" t="s">
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="179"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6471,10 +6482,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="187" t="s">
+      <c r="I5" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="188"/>
+      <c r="J5" s="187"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6485,8 +6496,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="190"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="189"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6497,8 +6508,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="190"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="189"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6509,8 +6520,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="189"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6521,8 +6532,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="189"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6533,8 +6544,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="192"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6545,10 +6556,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="178" t="s">
+      <c r="I11" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="179"/>
+      <c r="J11" s="178"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6559,10 +6570,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="181" t="s">
-        <v>220</v>
-      </c>
-      <c r="J12" s="182"/>
+      <c r="I12" s="180" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="181"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6573,8 +6584,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="183"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6585,8 +6596,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="183"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6597,8 +6608,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="184"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6609,8 +6620,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6621,8 +6632,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="183"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6633,8 +6644,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="183"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6645,8 +6656,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6657,8 +6668,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6669,8 +6680,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6681,8 +6692,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6693,8 +6704,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6705,8 +6716,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="183"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6717,8 +6728,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6729,8 +6740,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="183"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6741,8 +6752,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6753,8 +6764,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="184"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6765,8 +6776,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6777,8 +6788,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6789,8 +6800,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="183"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6801,8 +6812,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="183"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6813,8 +6824,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="183"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6825,8 +6836,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6837,8 +6848,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="184"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="183"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6849,8 +6860,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="183"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6861,8 +6872,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="184"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="183"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6873,8 +6884,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="184"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="183"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6885,8 +6896,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="184"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="183"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6897,8 +6908,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="183"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6909,8 +6920,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="183"/>
-      <c r="J41" s="184"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="183"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6921,8 +6932,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="184"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="183"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6933,8 +6944,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="186"/>
+      <c r="I43" s="184"/>
+      <c r="J43" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6977,7 +6988,7 @@
     <col min="2" max="2" width="7.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="52" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="135" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="133" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -7007,15 +7018,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="193" t="s">
+      <c r="H1" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="195" t="s">
+      <c r="I1" s="193"/>
+      <c r="J1" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="196"/>
-      <c r="L1" s="197"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="196"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7043,16 +7054,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="193" t="s">
+      <c r="H2" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195" t="str">
+      <c r="I2" s="193"/>
+      <c r="J2" s="194" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo thống kê thời gian giao hàng</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="197"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="196"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7072,7 +7083,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>161</v>
@@ -7130,7 +7141,7 @@
       <c r="D5" s="35">
         <v>1</v>
       </c>
-      <c r="E5" s="129" t="str">
+      <c r="E5" s="127" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo thống kê thời gian giao hàng</v>
       </c>
@@ -7170,7 +7181,7 @@
       <c r="F6" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="127" t="s">
         <v>172</v>
       </c>
       <c r="H6" s="40" t="s">
@@ -7199,16 +7210,16 @@
       <c r="C7" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="129">
         <v>3</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="128" t="s">
+      <c r="F7" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="128" t="s">
+      <c r="G7" s="126" t="s">
         <v>188</v>
       </c>
       <c r="H7" s="40" t="s">
@@ -7237,14 +7248,14 @@
       <c r="C8" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="129">
         <v>4</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="40" t="s">
         <v>164</v>
       </c>
@@ -7269,16 +7280,16 @@
       <c r="C9" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="129">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E9" s="133" t="s">
+      <c r="E9" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="128" t="s">
+      <c r="F9" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="128" t="s">
+      <c r="G9" s="126" t="s">
         <v>189</v>
       </c>
       <c r="H9" s="40" t="s">
@@ -7307,16 +7318,16 @@
       <c r="C10" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="131">
+      <c r="D10" s="129">
         <v>4.2</v>
       </c>
-      <c r="E10" s="133" t="s">
+      <c r="E10" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="128" t="s">
+      <c r="F10" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G10" s="126" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="40" t="s">
@@ -7345,16 +7356,16 @@
       <c r="C11" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="129">
         <v>4.3</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="128" t="s">
+      <c r="F11" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="126" t="s">
         <v>191</v>
       </c>
       <c r="H11" s="40" t="s">
@@ -7383,16 +7394,16 @@
       <c r="C12" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="131">
+      <c r="D12" s="129">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E12" s="133" t="s">
+      <c r="E12" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="128" t="s">
+      <c r="F12" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="128" t="s">
+      <c r="G12" s="126" t="s">
         <v>192</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -7421,16 +7432,16 @@
       <c r="C13" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="129">
         <v>4.5</v>
       </c>
-      <c r="E13" s="133" t="s">
+      <c r="E13" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="128" t="s">
+      <c r="F13" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="128" t="s">
+      <c r="G13" s="126" t="s">
         <v>193</v>
       </c>
       <c r="H13" s="40" t="s">
@@ -7459,14 +7470,14 @@
       <c r="C14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="131">
+      <c r="D14" s="129">
         <v>5</v>
       </c>
-      <c r="E14" s="133" t="s">
+      <c r="E14" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
       <c r="H14" s="40" t="s">
         <v>164</v>
       </c>
@@ -7491,16 +7502,16 @@
       <c r="C15" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="129">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="E15" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="128" t="s">
+      <c r="G15" s="126" t="s">
         <v>194</v>
       </c>
       <c r="H15" s="40" t="s">
@@ -7529,16 +7540,16 @@
       <c r="C16" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="131">
+      <c r="D16" s="129">
         <v>5.2</v>
       </c>
-      <c r="E16" s="133" t="s">
+      <c r="E16" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="128" t="s">
+      <c r="F16" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="126" t="s">
         <v>195</v>
       </c>
       <c r="H16" s="40" t="s">
@@ -7567,16 +7578,16 @@
       <c r="C17" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="131">
+      <c r="D17" s="129">
         <v>5.3</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="E17" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="128" t="s">
+      <c r="F17" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="126" t="s">
         <v>196</v>
       </c>
       <c r="H17" s="40" t="s">
@@ -7605,16 +7616,16 @@
       <c r="C18" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="131">
+      <c r="D18" s="129">
         <v>5.4</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="126" t="s">
         <v>197</v>
       </c>
       <c r="H18" s="40" t="s">
@@ -7643,16 +7654,16 @@
       <c r="C19" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="132">
+      <c r="D19" s="130">
         <v>5.5</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="128" t="s">
+      <c r="F19" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="128" t="s">
+      <c r="G19" s="126" t="s">
         <v>198</v>
       </c>
       <c r="H19" s="40" t="s">
@@ -7681,16 +7692,16 @@
       <c r="C20" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="132">
+      <c r="D20" s="130">
         <v>5.6</v>
       </c>
-      <c r="E20" s="133" t="s">
+      <c r="E20" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="G20" s="128" t="s">
+      <c r="G20" s="126" t="s">
         <v>199</v>
       </c>
       <c r="H20" s="40" t="s">
@@ -7722,11 +7733,11 @@
       <c r="D21" s="35">
         <v>6</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
       <c r="H21" s="40" t="s">
         <v>164</v>
       </c>
@@ -7754,13 +7765,13 @@
       <c r="D22" s="35">
         <v>6.1</v>
       </c>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="129" t="s">
+      <c r="G22" s="127" t="s">
         <v>206</v>
       </c>
       <c r="H22" s="40" t="s">
@@ -7792,13 +7803,13 @@
       <c r="D23" s="35">
         <v>6.2</v>
       </c>
-      <c r="E23" s="133" t="s">
+      <c r="E23" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="129" t="s">
+      <c r="F23" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="129" t="s">
+      <c r="G23" s="127" t="s">
         <v>207</v>
       </c>
       <c r="H23" s="40" t="s">
@@ -7830,13 +7841,13 @@
       <c r="D24" s="35">
         <v>6.3</v>
       </c>
-      <c r="E24" s="133" t="s">
+      <c r="E24" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="129" t="s">
+      <c r="G24" s="127" t="s">
         <v>208</v>
       </c>
       <c r="H24" s="40" t="s">
@@ -7868,13 +7879,13 @@
       <c r="D25" s="35">
         <v>6.4</v>
       </c>
-      <c r="E25" s="133" t="s">
+      <c r="E25" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="129" t="s">
+      <c r="F25" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="G25" s="129" t="s">
+      <c r="G25" s="127" t="s">
         <v>209</v>
       </c>
       <c r="H25" s="40" t="s">
@@ -7906,13 +7917,13 @@
       <c r="D26" s="35">
         <v>6.5</v>
       </c>
-      <c r="E26" s="133" t="s">
+      <c r="E26" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="129" t="s">
+      <c r="F26" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="129" t="s">
+      <c r="G26" s="127" t="s">
         <v>210</v>
       </c>
       <c r="H26" s="40" t="s">
@@ -7944,13 +7955,13 @@
       <c r="D27" s="35">
         <v>6.6</v>
       </c>
-      <c r="E27" s="133" t="s">
+      <c r="E27" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="129" t="s">
+      <c r="F27" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="129" t="s">
+      <c r="G27" s="127" t="s">
         <v>211</v>
       </c>
       <c r="H27" s="40" t="s">
@@ -7982,11 +7993,11 @@
       <c r="D28" s="35">
         <v>7</v>
       </c>
-      <c r="E28" s="129" t="s">
+      <c r="E28" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
       <c r="H28" s="40" t="s">
         <v>164</v>
       </c>
@@ -8014,13 +8025,13 @@
       <c r="D29" s="35">
         <v>7.1</v>
       </c>
-      <c r="E29" s="133" t="s">
+      <c r="E29" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="129" t="s">
+      <c r="F29" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="129" t="s">
+      <c r="G29" s="127" t="s">
         <v>200</v>
       </c>
       <c r="H29" s="40" t="s">
@@ -8052,13 +8063,13 @@
       <c r="D30" s="35">
         <v>7.2</v>
       </c>
-      <c r="E30" s="133" t="s">
+      <c r="E30" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F30" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="129" t="s">
+      <c r="G30" s="127" t="s">
         <v>201</v>
       </c>
       <c r="H30" s="40" t="s">
@@ -8090,13 +8101,13 @@
       <c r="D31" s="35">
         <v>7.3</v>
       </c>
-      <c r="E31" s="133" t="s">
+      <c r="E31" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="129" t="s">
+      <c r="F31" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="129" t="s">
+      <c r="G31" s="127" t="s">
         <v>202</v>
       </c>
       <c r="H31" s="40" t="s">
@@ -8128,13 +8139,13 @@
       <c r="D32" s="35">
         <v>7.4</v>
       </c>
-      <c r="E32" s="133" t="s">
+      <c r="E32" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="G32" s="129" t="s">
+      <c r="G32" s="127" t="s">
         <v>203</v>
       </c>
       <c r="H32" s="40" t="s">
@@ -8166,13 +8177,13 @@
       <c r="D33" s="35">
         <v>7.5</v>
       </c>
-      <c r="E33" s="133" t="s">
+      <c r="E33" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="129" t="s">
+      <c r="F33" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="127" t="s">
         <v>204</v>
       </c>
       <c r="H33" s="40" t="s">
@@ -8204,13 +8215,13 @@
       <c r="D34" s="35">
         <v>7.6</v>
       </c>
-      <c r="E34" s="133" t="s">
+      <c r="E34" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="127" t="s">
         <v>205</v>
       </c>
       <c r="H34" s="40" t="s">
@@ -8242,13 +8253,13 @@
       <c r="D35" s="35">
         <v>8</v>
       </c>
-      <c r="E35" s="213" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="142" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="142"/>
+      <c r="E35" s="141" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="139"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
@@ -8256,9 +8267,9 @@
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
       <c r="N35" s="40"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="142" t="s">
-        <v>223</v>
+      <c r="O35" s="139"/>
+      <c r="P35" s="139" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8274,13 +8285,13 @@
       <c r="D36" s="35">
         <v>9</v>
       </c>
-      <c r="E36" s="213" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" s="142" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" s="142"/>
+      <c r="E36" s="141" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="139" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="139"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -8288,9 +8299,9 @@
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
       <c r="N36" s="40"/>
-      <c r="O36" s="142"/>
-      <c r="P36" s="142" t="s">
-        <v>223</v>
+      <c r="O36" s="139"/>
+      <c r="P36" s="139" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8306,13 +8317,13 @@
       <c r="D37" s="35">
         <v>10</v>
       </c>
-      <c r="E37" s="213" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="142"/>
+      <c r="E37" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="139" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="139"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
@@ -8320,9 +8331,9 @@
       <c r="L37" s="40"/>
       <c r="M37" s="40"/>
       <c r="N37" s="40"/>
-      <c r="O37" s="142"/>
-      <c r="P37" s="142" t="s">
-        <v>228</v>
+      <c r="O37" s="139"/>
+      <c r="P37" s="139" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8332,7 +8343,7 @@
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="129"/>
+      <c r="E38" s="127"/>
       <c r="F38" s="68"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
@@ -8352,7 +8363,7 @@
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="129"/>
+      <c r="E39" s="127"/>
       <c r="F39" s="68"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -8372,7 +8383,7 @@
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="35"/>
-      <c r="E40" s="129"/>
+      <c r="E40" s="127"/>
       <c r="F40" s="68"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -8392,7 +8403,7 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="129"/>
+      <c r="E41" s="127"/>
       <c r="F41" s="68"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -8412,7 +8423,7 @@
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="35"/>
-      <c r="E42" s="129"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="68"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -8432,7 +8443,7 @@
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="129"/>
+      <c r="E43" s="127"/>
       <c r="F43" s="68"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
@@ -8452,7 +8463,7 @@
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="35"/>
-      <c r="E44" s="129"/>
+      <c r="E44" s="127"/>
       <c r="F44" s="68"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
@@ -8472,7 +8483,7 @@
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="35"/>
-      <c r="E45" s="129"/>
+      <c r="E45" s="127"/>
       <c r="F45" s="68"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
@@ -8492,7 +8503,7 @@
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="35"/>
-      <c r="E46" s="129"/>
+      <c r="E46" s="127"/>
       <c r="F46" s="68"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -8512,7 +8523,7 @@
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="129"/>
+      <c r="E47" s="127"/>
       <c r="F47" s="68"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -8532,7 +8543,7 @@
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="129"/>
+      <c r="E48" s="127"/>
       <c r="F48" s="73"/>
       <c r="G48" s="73"/>
       <c r="H48" s="40"/>
@@ -8552,7 +8563,7 @@
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="129"/>
+      <c r="E49" s="127"/>
       <c r="F49" s="73"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -8572,7 +8583,7 @@
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="129"/>
+      <c r="E50" s="127"/>
       <c r="F50" s="73"/>
       <c r="G50" s="73"/>
       <c r="H50" s="40"/>
@@ -8592,7 +8603,7 @@
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
       <c r="D51" s="35"/>
-      <c r="E51" s="129"/>
+      <c r="E51" s="127"/>
       <c r="F51" s="73"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -8612,7 +8623,7 @@
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="35"/>
-      <c r="E52" s="129"/>
+      <c r="E52" s="127"/>
       <c r="F52" s="73"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -8632,7 +8643,7 @@
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="35"/>
-      <c r="E53" s="129"/>
+      <c r="E53" s="127"/>
       <c r="F53" s="73"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -8652,7 +8663,7 @@
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
       <c r="D54" s="35"/>
-      <c r="E54" s="129"/>
+      <c r="E54" s="127"/>
       <c r="F54" s="73"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -9690,7 +9701,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="123"/>
@@ -9725,7 +9736,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="204"/>
+      <c r="A2" s="200"/>
       <c r="B2" s="124"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9789,13 +9800,13 @@
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="127"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="200"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="203"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9805,11 +9816,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9819,11 +9830,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="203"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9833,11 +9844,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9847,11 +9858,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="203"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9861,11 +9872,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9875,11 +9886,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9889,11 +9900,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9903,11 +9914,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="203"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9917,11 +9928,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9931,11 +9942,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="203"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9945,11 +9956,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9959,11 +9970,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9973,11 +9984,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9987,11 +9998,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -10001,11 +10012,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -10015,11 +10026,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="203"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -10031,9 +10042,9 @@
       <c r="E22" s="32"/>
       <c r="F22" s="165"/>
       <c r="G22" s="167"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="203"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -10045,9 +10056,9 @@
       <c r="E23" s="32"/>
       <c r="F23" s="165"/>
       <c r="G23" s="167"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="203"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -10059,9 +10070,9 @@
       <c r="E24" s="32"/>
       <c r="F24" s="165"/>
       <c r="G24" s="167"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -10073,9 +10084,9 @@
       <c r="E25" s="32"/>
       <c r="F25" s="165"/>
       <c r="G25" s="167"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="203"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -10087,9 +10098,9 @@
       <c r="E26" s="32"/>
       <c r="F26" s="165"/>
       <c r="G26" s="167"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="203"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -10101,9 +10112,9 @@
       <c r="E27" s="32"/>
       <c r="F27" s="165"/>
       <c r="G27" s="167"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="203"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -10115,9 +10126,9 @@
       <c r="E28" s="32"/>
       <c r="F28" s="165"/>
       <c r="G28" s="167"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -10129,9 +10140,9 @@
       <c r="E29" s="32"/>
       <c r="F29" s="165"/>
       <c r="G29" s="167"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="203"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -10143,9 +10154,9 @@
       <c r="E30" s="32"/>
       <c r="F30" s="165"/>
       <c r="G30" s="167"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="203"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -10157,9 +10168,9 @@
       <c r="E31" s="32"/>
       <c r="F31" s="165"/>
       <c r="G31" s="167"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="203"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -10171,9 +10182,9 @@
       <c r="E32" s="32"/>
       <c r="F32" s="165"/>
       <c r="G32" s="167"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="203"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -10192,9 +10203,9 @@
       <c r="E33" s="32"/>
       <c r="F33" s="165"/>
       <c r="G33" s="167"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -10213,9 +10224,9 @@
       <c r="E34" s="32"/>
       <c r="F34" s="165"/>
       <c r="G34" s="167"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="203"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -10234,9 +10245,9 @@
       <c r="E35" s="32"/>
       <c r="F35" s="165"/>
       <c r="G35" s="167"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="203"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -10255,9 +10266,9 @@
       <c r="E36" s="32"/>
       <c r="F36" s="165"/>
       <c r="G36" s="167"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="203"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -10276,9 +10287,9 @@
       <c r="E37" s="32"/>
       <c r="F37" s="165"/>
       <c r="G37" s="167"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="203"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -10297,9 +10308,9 @@
       <c r="E38" s="32"/>
       <c r="F38" s="165"/>
       <c r="G38" s="167"/>
-      <c r="H38" s="198"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="203"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -10318,9 +10329,9 @@
       <c r="E39" s="32"/>
       <c r="F39" s="165"/>
       <c r="G39" s="167"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="200"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="203"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -10339,9 +10350,9 @@
       <c r="E40" s="32"/>
       <c r="F40" s="165"/>
       <c r="G40" s="167"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="203"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -10360,9 +10371,9 @@
       <c r="E41" s="32"/>
       <c r="F41" s="165"/>
       <c r="G41" s="167"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="203"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -10381,9 +10392,9 @@
       <c r="E42" s="32"/>
       <c r="F42" s="165"/>
       <c r="G42" s="167"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="H42" s="201"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="203"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -10402,9 +10413,9 @@
       <c r="E43" s="32"/>
       <c r="F43" s="165"/>
       <c r="G43" s="167"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="203"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -10423,9 +10434,9 @@
       <c r="E44" s="32"/>
       <c r="F44" s="165"/>
       <c r="G44" s="167"/>
-      <c r="H44" s="198"/>
-      <c r="I44" s="199"/>
-      <c r="J44" s="200"/>
+      <c r="H44" s="201"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="203"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -10444,9 +10455,9 @@
       <c r="E45" s="32"/>
       <c r="F45" s="165"/>
       <c r="G45" s="167"/>
-      <c r="H45" s="198"/>
-      <c r="I45" s="199"/>
-      <c r="J45" s="200"/>
+      <c r="H45" s="201"/>
+      <c r="I45" s="202"/>
+      <c r="J45" s="203"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -10465,9 +10476,9 @@
       <c r="E46" s="32"/>
       <c r="F46" s="165"/>
       <c r="G46" s="167"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="202"/>
+      <c r="J46" s="203"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10486,9 +10497,9 @@
       <c r="E47" s="32"/>
       <c r="F47" s="165"/>
       <c r="G47" s="167"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="202"/>
+      <c r="J47" s="203"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10507,9 +10518,9 @@
       <c r="E48" s="32"/>
       <c r="F48" s="165"/>
       <c r="G48" s="167"/>
-      <c r="H48" s="198"/>
-      <c r="I48" s="199"/>
-      <c r="J48" s="200"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="202"/>
+      <c r="J48" s="203"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10528,9 +10539,9 @@
       <c r="E49" s="32"/>
       <c r="F49" s="165"/>
       <c r="G49" s="167"/>
-      <c r="H49" s="198"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="200"/>
+      <c r="H49" s="201"/>
+      <c r="I49" s="202"/>
+      <c r="J49" s="203"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10549,9 +10560,9 @@
       <c r="E50" s="32"/>
       <c r="F50" s="165"/>
       <c r="G50" s="167"/>
-      <c r="H50" s="198"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="200"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="202"/>
+      <c r="J50" s="203"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10570,9 +10581,9 @@
       <c r="E51" s="32"/>
       <c r="F51" s="165"/>
       <c r="G51" s="167"/>
-      <c r="H51" s="198"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="200"/>
+      <c r="H51" s="201"/>
+      <c r="I51" s="202"/>
+      <c r="J51" s="203"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10591,9 +10602,9 @@
       <c r="E52" s="32"/>
       <c r="F52" s="165"/>
       <c r="G52" s="167"/>
-      <c r="H52" s="198"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
+      <c r="H52" s="201"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="203"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10612,9 +10623,9 @@
       <c r="E53" s="32"/>
       <c r="F53" s="165"/>
       <c r="G53" s="167"/>
-      <c r="H53" s="198"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
+      <c r="H53" s="201"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="203"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10633,9 +10644,9 @@
       <c r="E54" s="32"/>
       <c r="F54" s="165"/>
       <c r="G54" s="167"/>
-      <c r="H54" s="198"/>
-      <c r="I54" s="199"/>
-      <c r="J54" s="200"/>
+      <c r="H54" s="201"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="203"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10654,9 +10665,9 @@
       <c r="E55" s="32"/>
       <c r="F55" s="165"/>
       <c r="G55" s="167"/>
-      <c r="H55" s="198"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="200"/>
+      <c r="H55" s="201"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="203"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10675,9 +10686,9 @@
       <c r="E56" s="32"/>
       <c r="F56" s="165"/>
       <c r="G56" s="167"/>
-      <c r="H56" s="198"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="200"/>
+      <c r="H56" s="201"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="203"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10689,25 +10700,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -10722,80 +10788,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10813,8 +10824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10822,9 +10833,9 @@
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="22" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
@@ -10856,11 +10867,11 @@
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="208" t="str">
+      <c r="J1" s="207" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="208"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10898,11 +10909,11 @@
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="208" t="str">
+      <c r="J2" s="207" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="208"/>
+      <c r="K2" s="207"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10932,8 +10943,8 @@
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="140" t="s">
-        <v>219</v>
+      <c r="B4" s="138" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -10959,12 +10970,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="178" t="s">
+      <c r="K4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="178"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10981,54 +10992,52 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="112.5">
-      <c r="A5" s="33">
+    <row r="5" spans="1:21" s="218" customFormat="1" ht="90">
+      <c r="A5" s="140">
         <v>1</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="140">
         <v>51</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="86" t="s">
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="212" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="126" t="s">
+      <c r="I5" s="212" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="205" t="s">
+      <c r="K5" s="215" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="213" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="213" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q5" s="214" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="P5" s="141" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q5" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="R5" s="74" t="s">
+      <c r="R5" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="S5" s="125" t="s">
-        <v>230</v>
-      </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
+      <c r="S5" s="212" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -11043,10 +11052,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="81"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="206"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="207"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="206"/>
       <c r="O6" s="86"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="75"/>
@@ -11068,15 +11077,15 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="81"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="206"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="207"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="206"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
       <c r="Q7" s="75"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="139"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="137"/>
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
     </row>
@@ -11093,15 +11102,15 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="207"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="206"/>
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="75"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="139"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="137"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
     </row>
@@ -11118,15 +11127,15 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="207"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="206"/>
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="75"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="139"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="137"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
     </row>
@@ -11143,15 +11152,15 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="207"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="206"/>
       <c r="O10" s="87"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="75"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="139"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="137"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
     </row>
@@ -11168,15 +11177,15 @@
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="207"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="206"/>
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="75"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="139"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="137"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
     </row>
@@ -11193,15 +11202,15 @@
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="206"/>
-      <c r="M12" s="206"/>
-      <c r="N12" s="207"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="206"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="75"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="139"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="137"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
     </row>
@@ -11218,15 +11227,15 @@
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="206"/>
-      <c r="N13" s="207"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="205"/>
+      <c r="N13" s="206"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="75"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="139"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="137"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
     </row>
@@ -11243,15 +11252,15 @@
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="206"/>
-      <c r="N14" s="207"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="206"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="75"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="132"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
     </row>
@@ -11268,10 +11277,10 @@
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="207"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="205"/>
+      <c r="M15" s="205"/>
+      <c r="N15" s="206"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="75"/>
@@ -11293,10 +11302,10 @@
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="207"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="206"/>
       <c r="O16" s="71"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="75"/>
@@ -11318,10 +11327,10 @@
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="207"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="205"/>
+      <c r="M17" s="205"/>
+      <c r="N17" s="206"/>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="75"/>
@@ -11343,10 +11352,10 @@
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="207"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="206"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="75"/>
@@ -11368,10 +11377,10 @@
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="207"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="206"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="75"/>
@@ -11393,10 +11402,10 @@
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="206"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="207"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="205"/>
+      <c r="M20" s="205"/>
+      <c r="N20" s="206"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="75"/>
@@ -11418,10 +11427,10 @@
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="206"/>
-      <c r="M21" s="206"/>
-      <c r="N21" s="207"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="205"/>
+      <c r="M21" s="205"/>
+      <c r="N21" s="206"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="75"/>
@@ -11443,10 +11452,10 @@
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="207"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="205"/>
+      <c r="M22" s="205"/>
+      <c r="N22" s="206"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="75"/>
@@ -11468,10 +11477,10 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="206"/>
-      <c r="M23" s="206"/>
-      <c r="N23" s="207"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="205"/>
+      <c r="N23" s="206"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="75"/>
@@ -11493,10 +11502,10 @@
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="206"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="207"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="206"/>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="75"/>
@@ -11518,10 +11527,10 @@
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="206"/>
-      <c r="N25" s="207"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="205"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="206"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="75"/>
@@ -11543,10 +11552,10 @@
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="206"/>
-      <c r="M26" s="206"/>
-      <c r="N26" s="207"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="206"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="75"/>
@@ -11568,10 +11577,10 @@
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="207"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="206"/>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="75"/>
@@ -11593,10 +11602,10 @@
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="207"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="206"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="75"/>
@@ -11618,10 +11627,10 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="207"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="205"/>
+      <c r="M29" s="205"/>
+      <c r="N29" s="206"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="75"/>
@@ -11643,10 +11652,10 @@
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="206"/>
-      <c r="M30" s="206"/>
-      <c r="N30" s="207"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="205"/>
+      <c r="M30" s="205"/>
+      <c r="N30" s="206"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="75"/>
@@ -11668,10 +11677,10 @@
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="206"/>
-      <c r="M31" s="206"/>
-      <c r="N31" s="207"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="205"/>
+      <c r="M31" s="205"/>
+      <c r="N31" s="206"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="75"/>
@@ -11693,10 +11702,10 @@
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="205"/>
-      <c r="L32" s="206"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="207"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="206"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="75"/>
@@ -11718,10 +11727,10 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="206"/>
-      <c r="M33" s="206"/>
-      <c r="N33" s="207"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="205"/>
+      <c r="M33" s="205"/>
+      <c r="N33" s="206"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="75"/>
@@ -11743,10 +11752,10 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="205"/>
-      <c r="L34" s="206"/>
-      <c r="M34" s="206"/>
-      <c r="N34" s="207"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="205"/>
+      <c r="M34" s="205"/>
+      <c r="N34" s="206"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="75"/>
@@ -11768,10 +11777,10 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="205"/>
-      <c r="L35" s="206"/>
-      <c r="M35" s="206"/>
-      <c r="N35" s="207"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="205"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="206"/>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="75"/>
@@ -11793,10 +11802,10 @@
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="205"/>
-      <c r="L36" s="206"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="207"/>
+      <c r="K36" s="204"/>
+      <c r="L36" s="205"/>
+      <c r="M36" s="205"/>
+      <c r="N36" s="206"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="75"/>
@@ -11818,10 +11827,10 @@
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="206"/>
-      <c r="N37" s="207"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="206"/>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="75"/>
@@ -11843,10 +11852,10 @@
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="205"/>
-      <c r="L38" s="206"/>
-      <c r="M38" s="206"/>
-      <c r="N38" s="207"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="206"/>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="75"/>
@@ -11868,10 +11877,10 @@
       <c r="H39" s="62"/>
       <c r="I39" s="62"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="206"/>
-      <c r="N39" s="207"/>
+      <c r="K39" s="204"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="206"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="75"/>
@@ -11893,10 +11902,10 @@
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="205"/>
-      <c r="L40" s="206"/>
-      <c r="M40" s="206"/>
-      <c r="N40" s="207"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="205"/>
+      <c r="M40" s="205"/>
+      <c r="N40" s="206"/>
       <c r="O40" s="73"/>
       <c r="P40" s="73"/>
       <c r="Q40" s="75"/>
@@ -11918,10 +11927,10 @@
       <c r="H41" s="62"/>
       <c r="I41" s="62"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="206"/>
-      <c r="M41" s="206"/>
-      <c r="N41" s="207"/>
+      <c r="K41" s="204"/>
+      <c r="L41" s="205"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="206"/>
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="75"/>
@@ -11943,10 +11952,10 @@
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="205"/>
-      <c r="L42" s="206"/>
-      <c r="M42" s="206"/>
-      <c r="N42" s="207"/>
+      <c r="K42" s="204"/>
+      <c r="L42" s="205"/>
+      <c r="M42" s="205"/>
+      <c r="N42" s="206"/>
       <c r="O42" s="73"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="75"/>
@@ -11968,10 +11977,10 @@
       <c r="H43" s="62"/>
       <c r="I43" s="62"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="205"/>
-      <c r="L43" s="206"/>
-      <c r="M43" s="206"/>
-      <c r="N43" s="207"/>
+      <c r="K43" s="204"/>
+      <c r="L43" s="205"/>
+      <c r="M43" s="205"/>
+      <c r="N43" s="206"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="75"/>
@@ -11993,10 +12002,10 @@
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="206"/>
-      <c r="M44" s="206"/>
-      <c r="N44" s="207"/>
+      <c r="K44" s="204"/>
+      <c r="L44" s="205"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="206"/>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="75"/>
@@ -12018,10 +12027,10 @@
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="206"/>
-      <c r="M45" s="206"/>
-      <c r="N45" s="207"/>
+      <c r="K45" s="204"/>
+      <c r="L45" s="205"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="206"/>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="75"/>
@@ -12043,10 +12052,10 @@
       <c r="H46" s="62"/>
       <c r="I46" s="62"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="205"/>
-      <c r="L46" s="206"/>
-      <c r="M46" s="206"/>
-      <c r="N46" s="207"/>
+      <c r="K46" s="204"/>
+      <c r="L46" s="205"/>
+      <c r="M46" s="205"/>
+      <c r="N46" s="206"/>
       <c r="O46" s="73"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="75"/>
@@ -12068,10 +12077,10 @@
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="205"/>
-      <c r="L47" s="206"/>
-      <c r="M47" s="206"/>
-      <c r="N47" s="207"/>
+      <c r="K47" s="204"/>
+      <c r="L47" s="205"/>
+      <c r="M47" s="205"/>
+      <c r="N47" s="206"/>
       <c r="O47" s="73"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="75"/>
@@ -12093,10 +12102,10 @@
       <c r="H48" s="62"/>
       <c r="I48" s="62"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="205"/>
-      <c r="L48" s="206"/>
-      <c r="M48" s="206"/>
-      <c r="N48" s="207"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="205"/>
+      <c r="M48" s="205"/>
+      <c r="N48" s="206"/>
       <c r="O48" s="73"/>
       <c r="P48" s="73"/>
       <c r="Q48" s="75"/>
@@ -12118,10 +12127,10 @@
       <c r="H49" s="62"/>
       <c r="I49" s="62"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="205"/>
-      <c r="L49" s="206"/>
-      <c r="M49" s="206"/>
-      <c r="N49" s="207"/>
+      <c r="K49" s="204"/>
+      <c r="L49" s="205"/>
+      <c r="M49" s="205"/>
+      <c r="N49" s="206"/>
       <c r="O49" s="73"/>
       <c r="P49" s="73"/>
       <c r="Q49" s="75"/>
@@ -12143,10 +12152,10 @@
       <c r="H50" s="62"/>
       <c r="I50" s="62"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="205"/>
-      <c r="L50" s="206"/>
-      <c r="M50" s="206"/>
-      <c r="N50" s="207"/>
+      <c r="K50" s="204"/>
+      <c r="L50" s="205"/>
+      <c r="M50" s="205"/>
+      <c r="N50" s="206"/>
       <c r="O50" s="73"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="75"/>
@@ -12168,10 +12177,10 @@
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="205"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="206"/>
-      <c r="N51" s="207"/>
+      <c r="K51" s="204"/>
+      <c r="L51" s="205"/>
+      <c r="M51" s="205"/>
+      <c r="N51" s="206"/>
       <c r="O51" s="73"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="75"/>
@@ -12193,10 +12202,10 @@
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="205"/>
-      <c r="L52" s="206"/>
-      <c r="M52" s="206"/>
-      <c r="N52" s="207"/>
+      <c r="K52" s="204"/>
+      <c r="L52" s="205"/>
+      <c r="M52" s="205"/>
+      <c r="N52" s="206"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="75"/>
@@ -12218,10 +12227,10 @@
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="205"/>
-      <c r="L53" s="206"/>
-      <c r="M53" s="206"/>
-      <c r="N53" s="207"/>
+      <c r="K53" s="204"/>
+      <c r="L53" s="205"/>
+      <c r="M53" s="205"/>
+      <c r="N53" s="206"/>
       <c r="O53" s="73"/>
       <c r="P53" s="73"/>
       <c r="Q53" s="75"/>
@@ -12243,10 +12252,10 @@
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="205"/>
-      <c r="L54" s="206"/>
-      <c r="M54" s="206"/>
-      <c r="N54" s="207"/>
+      <c r="K54" s="204"/>
+      <c r="L54" s="205"/>
+      <c r="M54" s="205"/>
+      <c r="N54" s="206"/>
       <c r="O54" s="73"/>
       <c r="P54" s="73"/>
       <c r="Q54" s="75"/>
@@ -12268,10 +12277,10 @@
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="206"/>
-      <c r="M55" s="206"/>
-      <c r="N55" s="207"/>
+      <c r="K55" s="204"/>
+      <c r="L55" s="205"/>
+      <c r="M55" s="205"/>
+      <c r="N55" s="206"/>
       <c r="O55" s="73"/>
       <c r="P55" s="73"/>
       <c r="Q55" s="75"/>
@@ -12293,10 +12302,10 @@
       <c r="H56" s="62"/>
       <c r="I56" s="62"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="206"/>
-      <c r="M56" s="206"/>
-      <c r="N56" s="207"/>
+      <c r="K56" s="204"/>
+      <c r="L56" s="205"/>
+      <c r="M56" s="205"/>
+      <c r="N56" s="206"/>
       <c r="O56" s="73"/>
       <c r="P56" s="73"/>
       <c r="Q56" s="75"/>
@@ -12318,10 +12327,10 @@
       <c r="H57" s="62"/>
       <c r="I57" s="62"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="205"/>
-      <c r="L57" s="206"/>
-      <c r="M57" s="206"/>
-      <c r="N57" s="207"/>
+      <c r="K57" s="204"/>
+      <c r="L57" s="205"/>
+      <c r="M57" s="205"/>
+      <c r="N57" s="206"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73"/>
       <c r="Q57" s="75"/>
@@ -12343,10 +12352,10 @@
       <c r="H58" s="62"/>
       <c r="I58" s="62"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="205"/>
-      <c r="L58" s="206"/>
-      <c r="M58" s="206"/>
-      <c r="N58" s="207"/>
+      <c r="K58" s="204"/>
+      <c r="L58" s="205"/>
+      <c r="M58" s="205"/>
+      <c r="N58" s="206"/>
       <c r="O58" s="73"/>
       <c r="P58" s="73"/>
       <c r="Q58" s="75"/>
@@ -12368,10 +12377,10 @@
       <c r="H59" s="62"/>
       <c r="I59" s="62"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="205"/>
-      <c r="L59" s="206"/>
-      <c r="M59" s="206"/>
-      <c r="N59" s="207"/>
+      <c r="K59" s="204"/>
+      <c r="L59" s="205"/>
+      <c r="M59" s="205"/>
+      <c r="N59" s="206"/>
       <c r="O59" s="73"/>
       <c r="P59" s="73"/>
       <c r="Q59" s="75"/>
@@ -12393,10 +12402,10 @@
       <c r="H60" s="62"/>
       <c r="I60" s="62"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="205"/>
-      <c r="L60" s="206"/>
-      <c r="M60" s="206"/>
-      <c r="N60" s="207"/>
+      <c r="K60" s="204"/>
+      <c r="L60" s="205"/>
+      <c r="M60" s="205"/>
+      <c r="N60" s="206"/>
       <c r="O60" s="73"/>
       <c r="P60" s="73"/>
       <c r="Q60" s="75"/>
@@ -12418,10 +12427,10 @@
       <c r="H61" s="62"/>
       <c r="I61" s="62"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="205"/>
-      <c r="L61" s="206"/>
-      <c r="M61" s="206"/>
-      <c r="N61" s="207"/>
+      <c r="K61" s="204"/>
+      <c r="L61" s="205"/>
+      <c r="M61" s="205"/>
+      <c r="N61" s="206"/>
       <c r="O61" s="73"/>
       <c r="P61" s="73"/>
       <c r="Q61" s="75"/>
@@ -12443,10 +12452,10 @@
       <c r="H62" s="62"/>
       <c r="I62" s="62"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="205"/>
-      <c r="L62" s="206"/>
-      <c r="M62" s="206"/>
-      <c r="N62" s="207"/>
+      <c r="K62" s="204"/>
+      <c r="L62" s="205"/>
+      <c r="M62" s="205"/>
+      <c r="N62" s="206"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="75"/>
@@ -12468,10 +12477,10 @@
       <c r="H63" s="62"/>
       <c r="I63" s="62"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="205"/>
-      <c r="L63" s="206"/>
-      <c r="M63" s="206"/>
-      <c r="N63" s="207"/>
+      <c r="K63" s="204"/>
+      <c r="L63" s="205"/>
+      <c r="M63" s="205"/>
+      <c r="N63" s="206"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="75"/>
@@ -12493,10 +12502,10 @@
       <c r="H64" s="62"/>
       <c r="I64" s="62"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="205"/>
-      <c r="L64" s="206"/>
-      <c r="M64" s="206"/>
-      <c r="N64" s="207"/>
+      <c r="K64" s="204"/>
+      <c r="L64" s="205"/>
+      <c r="M64" s="205"/>
+      <c r="N64" s="206"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="75"/>
@@ -12516,10 +12525,10 @@
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="205"/>
-      <c r="L65" s="206"/>
-      <c r="M65" s="206"/>
-      <c r="N65" s="207"/>
+      <c r="K65" s="204"/>
+      <c r="L65" s="205"/>
+      <c r="M65" s="205"/>
+      <c r="N65" s="206"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="75"/>
@@ -12539,10 +12548,10 @@
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="205"/>
-      <c r="L66" s="206"/>
-      <c r="M66" s="206"/>
-      <c r="N66" s="207"/>
+      <c r="K66" s="204"/>
+      <c r="L66" s="205"/>
+      <c r="M66" s="205"/>
+      <c r="N66" s="206"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="75"/>
@@ -12562,10 +12571,10 @@
       <c r="H67" s="62"/>
       <c r="I67" s="62"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="205"/>
-      <c r="L67" s="206"/>
-      <c r="M67" s="206"/>
-      <c r="N67" s="207"/>
+      <c r="K67" s="204"/>
+      <c r="L67" s="205"/>
+      <c r="M67" s="205"/>
+      <c r="N67" s="206"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="75"/>
@@ -12585,10 +12594,10 @@
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="205"/>
-      <c r="L68" s="206"/>
-      <c r="M68" s="206"/>
-      <c r="N68" s="207"/>
+      <c r="K68" s="204"/>
+      <c r="L68" s="205"/>
+      <c r="M68" s="205"/>
+      <c r="N68" s="206"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="75"/>
@@ -12608,10 +12617,10 @@
       <c r="H69" s="62"/>
       <c r="I69" s="62"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="205"/>
-      <c r="L69" s="206"/>
-      <c r="M69" s="206"/>
-      <c r="N69" s="207"/>
+      <c r="K69" s="204"/>
+      <c r="L69" s="205"/>
+      <c r="M69" s="205"/>
+      <c r="N69" s="206"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="75"/>
@@ -12631,10 +12640,10 @@
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="205"/>
-      <c r="L70" s="206"/>
-      <c r="M70" s="206"/>
-      <c r="N70" s="207"/>
+      <c r="K70" s="204"/>
+      <c r="L70" s="205"/>
+      <c r="M70" s="205"/>
+      <c r="N70" s="206"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="75"/>
@@ -12654,10 +12663,10 @@
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="205"/>
-      <c r="L71" s="206"/>
-      <c r="M71" s="206"/>
-      <c r="N71" s="207"/>
+      <c r="K71" s="204"/>
+      <c r="L71" s="205"/>
+      <c r="M71" s="205"/>
+      <c r="N71" s="206"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="75"/>
@@ -12677,10 +12686,10 @@
       <c r="H72" s="62"/>
       <c r="I72" s="62"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="205"/>
-      <c r="L72" s="206"/>
-      <c r="M72" s="206"/>
-      <c r="N72" s="207"/>
+      <c r="K72" s="204"/>
+      <c r="L72" s="205"/>
+      <c r="M72" s="205"/>
+      <c r="N72" s="206"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="75"/>
@@ -12700,10 +12709,10 @@
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="205"/>
-      <c r="L73" s="206"/>
-      <c r="M73" s="206"/>
-      <c r="N73" s="207"/>
+      <c r="K73" s="204"/>
+      <c r="L73" s="205"/>
+      <c r="M73" s="205"/>
+      <c r="N73" s="206"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="75"/>
@@ -12723,10 +12732,10 @@
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="205"/>
-      <c r="L74" s="206"/>
-      <c r="M74" s="206"/>
-      <c r="N74" s="207"/>
+      <c r="K74" s="204"/>
+      <c r="L74" s="205"/>
+      <c r="M74" s="205"/>
+      <c r="N74" s="206"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="75"/>
@@ -12746,10 +12755,10 @@
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="205"/>
-      <c r="L75" s="206"/>
-      <c r="M75" s="206"/>
-      <c r="N75" s="207"/>
+      <c r="K75" s="204"/>
+      <c r="L75" s="205"/>
+      <c r="M75" s="205"/>
+      <c r="N75" s="206"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="75"/>
@@ -12769,10 +12778,10 @@
       <c r="H76" s="62"/>
       <c r="I76" s="62"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="205"/>
-      <c r="L76" s="206"/>
-      <c r="M76" s="206"/>
-      <c r="N76" s="207"/>
+      <c r="K76" s="204"/>
+      <c r="L76" s="205"/>
+      <c r="M76" s="205"/>
+      <c r="N76" s="206"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="75"/>
@@ -12792,10 +12801,10 @@
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="205"/>
-      <c r="L77" s="206"/>
-      <c r="M77" s="206"/>
-      <c r="N77" s="207"/>
+      <c r="K77" s="204"/>
+      <c r="L77" s="205"/>
+      <c r="M77" s="205"/>
+      <c r="N77" s="206"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="75"/>
@@ -12815,10 +12824,10 @@
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="205"/>
-      <c r="L78" s="206"/>
-      <c r="M78" s="206"/>
-      <c r="N78" s="207"/>
+      <c r="K78" s="204"/>
+      <c r="L78" s="205"/>
+      <c r="M78" s="205"/>
+      <c r="N78" s="206"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="75"/>
@@ -12838,10 +12847,10 @@
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="205"/>
-      <c r="L79" s="206"/>
-      <c r="M79" s="206"/>
-      <c r="N79" s="207"/>
+      <c r="K79" s="204"/>
+      <c r="L79" s="205"/>
+      <c r="M79" s="205"/>
+      <c r="N79" s="206"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="75"/>
@@ -12861,10 +12870,10 @@
       <c r="H80" s="62"/>
       <c r="I80" s="62"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="205"/>
-      <c r="L80" s="206"/>
-      <c r="M80" s="206"/>
-      <c r="N80" s="207"/>
+      <c r="K80" s="204"/>
+      <c r="L80" s="205"/>
+      <c r="M80" s="205"/>
+      <c r="N80" s="206"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="75"/>
@@ -12884,10 +12893,10 @@
       <c r="H81" s="62"/>
       <c r="I81" s="62"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="205"/>
-      <c r="L81" s="206"/>
-      <c r="M81" s="206"/>
-      <c r="N81" s="207"/>
+      <c r="K81" s="204"/>
+      <c r="L81" s="205"/>
+      <c r="M81" s="205"/>
+      <c r="N81" s="206"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="75"/>
@@ -12907,10 +12916,10 @@
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="205"/>
-      <c r="L82" s="206"/>
-      <c r="M82" s="206"/>
-      <c r="N82" s="207"/>
+      <c r="K82" s="204"/>
+      <c r="L82" s="205"/>
+      <c r="M82" s="205"/>
+      <c r="N82" s="206"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="75"/>
@@ -12930,10 +12939,10 @@
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="205"/>
-      <c r="L83" s="206"/>
-      <c r="M83" s="206"/>
-      <c r="N83" s="207"/>
+      <c r="K83" s="204"/>
+      <c r="L83" s="205"/>
+      <c r="M83" s="205"/>
+      <c r="N83" s="206"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="75"/>
@@ -12953,10 +12962,10 @@
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="205"/>
-      <c r="L84" s="206"/>
-      <c r="M84" s="206"/>
-      <c r="N84" s="207"/>
+      <c r="K84" s="204"/>
+      <c r="L84" s="205"/>
+      <c r="M84" s="205"/>
+      <c r="N84" s="206"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="75"/>
@@ -12976,10 +12985,10 @@
       <c r="H85" s="62"/>
       <c r="I85" s="62"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="205"/>
-      <c r="L85" s="206"/>
-      <c r="M85" s="206"/>
-      <c r="N85" s="207"/>
+      <c r="K85" s="204"/>
+      <c r="L85" s="205"/>
+      <c r="M85" s="205"/>
+      <c r="N85" s="206"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="75"/>
@@ -12999,10 +13008,10 @@
       <c r="H86" s="62"/>
       <c r="I86" s="62"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="205"/>
-      <c r="L86" s="206"/>
-      <c r="M86" s="206"/>
-      <c r="N86" s="207"/>
+      <c r="K86" s="204"/>
+      <c r="L86" s="205"/>
+      <c r="M86" s="205"/>
+      <c r="N86" s="206"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="75"/>
@@ -13022,10 +13031,10 @@
       <c r="H87" s="62"/>
       <c r="I87" s="62"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="205"/>
-      <c r="L87" s="206"/>
-      <c r="M87" s="206"/>
-      <c r="N87" s="207"/>
+      <c r="K87" s="204"/>
+      <c r="L87" s="205"/>
+      <c r="M87" s="205"/>
+      <c r="N87" s="206"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="75"/>
@@ -13045,10 +13054,10 @@
       <c r="H88" s="62"/>
       <c r="I88" s="62"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="205"/>
-      <c r="L88" s="206"/>
-      <c r="M88" s="206"/>
-      <c r="N88" s="207"/>
+      <c r="K88" s="204"/>
+      <c r="L88" s="205"/>
+      <c r="M88" s="205"/>
+      <c r="N88" s="206"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="75"/>
@@ -13068,10 +13077,10 @@
       <c r="H89" s="62"/>
       <c r="I89" s="62"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="205"/>
-      <c r="L89" s="206"/>
-      <c r="M89" s="206"/>
-      <c r="N89" s="207"/>
+      <c r="K89" s="204"/>
+      <c r="L89" s="205"/>
+      <c r="M89" s="205"/>
+      <c r="N89" s="206"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="75"/>
@@ -13091,10 +13100,10 @@
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="205"/>
-      <c r="L90" s="206"/>
-      <c r="M90" s="206"/>
-      <c r="N90" s="207"/>
+      <c r="K90" s="204"/>
+      <c r="L90" s="205"/>
+      <c r="M90" s="205"/>
+      <c r="N90" s="206"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="75"/>
@@ -13114,10 +13123,10 @@
       <c r="H91" s="62"/>
       <c r="I91" s="62"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="205"/>
-      <c r="L91" s="206"/>
-      <c r="M91" s="206"/>
-      <c r="N91" s="207"/>
+      <c r="K91" s="204"/>
+      <c r="L91" s="205"/>
+      <c r="M91" s="205"/>
+      <c r="N91" s="206"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="75"/>
@@ -13137,10 +13146,10 @@
       <c r="H92" s="62"/>
       <c r="I92" s="62"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="205"/>
-      <c r="L92" s="206"/>
-      <c r="M92" s="206"/>
-      <c r="N92" s="207"/>
+      <c r="K92" s="204"/>
+      <c r="L92" s="205"/>
+      <c r="M92" s="205"/>
+      <c r="N92" s="206"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="75"/>
@@ -13160,10 +13169,10 @@
       <c r="H93" s="62"/>
       <c r="I93" s="62"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="205"/>
-      <c r="L93" s="206"/>
-      <c r="M93" s="206"/>
-      <c r="N93" s="207"/>
+      <c r="K93" s="204"/>
+      <c r="L93" s="205"/>
+      <c r="M93" s="205"/>
+      <c r="N93" s="206"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="75"/>
@@ -13183,10 +13192,10 @@
       <c r="H94" s="62"/>
       <c r="I94" s="62"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="205"/>
-      <c r="L94" s="206"/>
-      <c r="M94" s="206"/>
-      <c r="N94" s="207"/>
+      <c r="K94" s="204"/>
+      <c r="L94" s="205"/>
+      <c r="M94" s="205"/>
+      <c r="N94" s="206"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="75"/>
@@ -13199,11 +13208,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -13220,79 +13297,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13321,7 +13330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
@@ -13430,7 +13439,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13511,7 +13520,7 @@
       <c r="A12" s="79"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13669,7 +13678,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72"/>
       <c r="B26" s="85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMR30301_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMR30301_Thong ke thoi gian giao hang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Thong ke thoi gian giao hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Thong ke thoi gian giao hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="237">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2204,12 +2204,6 @@
     <t>TDate</t>
   </si>
   <si>
-    <t>Số hóa đơn</t>
-  </si>
-  <si>
-    <t>Thời gian duyệt đơn hàng (Tính từ lúc nhận đơn hàng)</t>
-  </si>
-  <si>
     <t>16' - &lt;= 30'</t>
   </si>
   <si>
@@ -2225,9 +2219,6 @@
     <t>&lt;= 15'</t>
   </si>
   <si>
-    <t>Thời gian giao hàng (Từ lúc NVGH nhận phiếu đến khi phiếu về nộp thủ quỹ)</t>
-  </si>
-  <si>
     <t>&lt;= 30</t>
   </si>
   <si>
@@ -2241,15 +2232,6 @@
   </si>
   <si>
     <t>&gt; 4h</t>
-  </si>
-  <si>
-    <t>Thời gian chỉ tiêu giao hàng (Từ lúc duyệt đơn hàng đến khi phiếu về thủ quỹ)</t>
-  </si>
-  <si>
-    <t>Tổng cộng thời gian giao hàng theo đơn hàng (Từ lúc nhận đơn hàng đến lúc phiếu về thủ quỹ)</t>
-  </si>
-  <si>
-    <t>SumOrder</t>
   </si>
   <si>
     <t>CTime1</t>
@@ -2359,12 +2341,6 @@
   </si>
   <si>
     <t>ToDate</t>
-  </si>
-  <si>
-    <t>Theo kỳ</t>
-  </si>
-  <si>
-    <t>Period</t>
   </si>
   <si>
     <t>Control này được truyền từ CRMF3010 nếu IsDate = 0</t>
@@ -2406,6 +2382,39 @@
 @@FromAccountID @@ToAccountID
 Biến môi trường
 </t>
+  </si>
+  <si>
+    <t>Số phiếu phát sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn vị </t>
+  </si>
+  <si>
+    <t>DivisionID</t>
+  </si>
+  <si>
+    <t>DivisionName</t>
+  </si>
+  <si>
+    <t>Thời gian duyệt đơn hàng</t>
+  </si>
+  <si>
+    <t>Thời gian giao hàng</t>
+  </si>
+  <si>
+    <t>Thời gian chỉ tiêu giao hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng cộng thời gian giao hàng theo đơn hàng </t>
+  </si>
+  <si>
+    <t>SumNo</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Tdate</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2962,6 +2971,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2976,7 +3037,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3331,104 +3392,119 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3499,6 +3575,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3510,15 +3595,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3531,6 +3607,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3543,26 +3628,23 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3645,19 +3727,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3444505</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3677,8 +3759,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="76200" y="866776"/>
-          <a:ext cx="10245355" cy="3676650"/>
+          <a:off x="95250" y="1143000"/>
+          <a:ext cx="11963400" cy="2952750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4489,65 +4571,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="155" t="s">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="154" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154" t="s">
+      <c r="H1" s="153"/>
+      <c r="I1" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="154"/>
+      <c r="J1" s="153"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="154" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="150" t="s">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="151"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="151"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4558,56 +4640,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4618,384 +4700,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="148"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="163"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="143"/>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="143"/>
-      <c r="Z28" s="143"/>
-      <c r="AA28" s="143"/>
-      <c r="AB28" s="143"/>
-      <c r="AC28" s="143"/>
-      <c r="AD28" s="143"/>
-      <c r="AE28" s="143"/>
-      <c r="AF28" s="143"/>
-      <c r="AG28" s="143"/>
-      <c r="AH28" s="143"/>
-      <c r="AI28" s="143"/>
-      <c r="AJ28" s="143"/>
-      <c r="AK28" s="143"/>
-      <c r="AL28" s="143"/>
-      <c r="AM28" s="143"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="143"/>
-      <c r="AP28" s="143"/>
-      <c r="AQ28" s="143"/>
-      <c r="AR28" s="143"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="143"/>
-      <c r="AU28" s="143"/>
-      <c r="AV28" s="143"/>
-      <c r="AW28" s="143"/>
-      <c r="AX28" s="143"/>
-      <c r="AY28" s="143"/>
-      <c r="AZ28" s="143"/>
-      <c r="BA28" s="143"/>
-      <c r="BB28" s="143"/>
-      <c r="BC28" s="143"/>
-      <c r="BD28" s="143"/>
-      <c r="BE28" s="143"/>
-      <c r="BF28" s="143"/>
-      <c r="BG28" s="143"/>
-      <c r="BH28" s="143"/>
-      <c r="BI28" s="143"/>
-      <c r="BJ28" s="143"/>
-      <c r="BK28" s="143"/>
-      <c r="BL28" s="143"/>
-      <c r="BM28" s="143"/>
-      <c r="BN28" s="143"/>
-      <c r="BO28" s="143"/>
-      <c r="BP28" s="143"/>
-      <c r="BQ28" s="143"/>
-      <c r="BR28" s="143"/>
-      <c r="BS28" s="143"/>
-      <c r="BT28" s="143"/>
-      <c r="BU28" s="143"/>
-      <c r="BV28" s="143"/>
-      <c r="BW28" s="143"/>
-      <c r="BX28" s="143"/>
-      <c r="BY28" s="143"/>
-      <c r="BZ28" s="143"/>
-      <c r="CA28" s="143"/>
-      <c r="CB28" s="143"/>
-      <c r="CC28" s="143"/>
-      <c r="CD28" s="143"/>
-      <c r="CE28" s="143"/>
-      <c r="CF28" s="143"/>
-      <c r="CG28" s="143"/>
-      <c r="CH28" s="143"/>
-      <c r="CI28" s="143"/>
-      <c r="CJ28" s="143"/>
-      <c r="CK28" s="143"/>
-      <c r="CL28" s="143"/>
-      <c r="CM28" s="143"/>
-      <c r="CN28" s="143"/>
-      <c r="CO28" s="143"/>
-      <c r="CP28" s="143"/>
-      <c r="CQ28" s="143"/>
-      <c r="CR28" s="143"/>
-      <c r="CS28" s="143"/>
-      <c r="CT28" s="143"/>
-      <c r="CU28" s="143"/>
-      <c r="CV28" s="143"/>
-      <c r="CW28" s="143"/>
-      <c r="CX28" s="143"/>
-      <c r="CY28" s="143"/>
-      <c r="CZ28" s="143"/>
-      <c r="DA28" s="143"/>
-      <c r="DB28" s="143"/>
-      <c r="DC28" s="143"/>
-      <c r="DD28" s="143"/>
-      <c r="DE28" s="143"/>
-      <c r="DF28" s="143"/>
-      <c r="DG28" s="143"/>
-      <c r="DH28" s="143"/>
-      <c r="DI28" s="143"/>
-      <c r="DJ28" s="143"/>
-      <c r="DK28" s="143"/>
-      <c r="DL28" s="143"/>
-      <c r="DM28" s="143"/>
-      <c r="DN28" s="143"/>
-      <c r="DO28" s="143"/>
-      <c r="DP28" s="143"/>
-      <c r="DQ28" s="143"/>
-      <c r="DR28" s="143"/>
-      <c r="DS28" s="143"/>
-      <c r="DT28" s="143"/>
-      <c r="DU28" s="143"/>
-      <c r="DV28" s="143"/>
-      <c r="DW28" s="143"/>
-      <c r="DX28" s="143"/>
-      <c r="DY28" s="143"/>
-      <c r="DZ28" s="143"/>
-      <c r="EA28" s="143"/>
-      <c r="EB28" s="143"/>
-      <c r="EC28" s="143"/>
-      <c r="ED28" s="143"/>
-      <c r="EE28" s="143"/>
-      <c r="EF28" s="143"/>
-      <c r="EG28" s="143"/>
-      <c r="EH28" s="143"/>
-      <c r="EI28" s="143"/>
-      <c r="EJ28" s="143"/>
-      <c r="EK28" s="143"/>
-      <c r="EL28" s="143"/>
-      <c r="EM28" s="143"/>
-      <c r="EN28" s="143"/>
-      <c r="EO28" s="143"/>
-      <c r="EP28" s="143"/>
-      <c r="EQ28" s="143"/>
-      <c r="ER28" s="143"/>
-      <c r="ES28" s="143"/>
-      <c r="ET28" s="143"/>
-      <c r="EU28" s="143"/>
-      <c r="EV28" s="143"/>
-      <c r="EW28" s="143"/>
-      <c r="EX28" s="143"/>
-      <c r="EY28" s="143"/>
-      <c r="EZ28" s="143"/>
-      <c r="FA28" s="143"/>
-      <c r="FB28" s="143"/>
-      <c r="FC28" s="143"/>
-      <c r="FD28" s="143"/>
-      <c r="FE28" s="143"/>
-      <c r="FF28" s="143"/>
-      <c r="FG28" s="143"/>
-      <c r="FH28" s="143"/>
-      <c r="FI28" s="143"/>
-      <c r="FJ28" s="143"/>
-      <c r="FK28" s="143"/>
-      <c r="FL28" s="143"/>
-      <c r="FM28" s="143"/>
-      <c r="FN28" s="143"/>
-      <c r="FO28" s="143"/>
-      <c r="FP28" s="143"/>
-      <c r="FQ28" s="143"/>
-      <c r="FR28" s="143"/>
-      <c r="FS28" s="143"/>
-      <c r="FT28" s="143"/>
-      <c r="FU28" s="143"/>
-      <c r="FV28" s="143"/>
-      <c r="FW28" s="143"/>
-      <c r="FX28" s="143"/>
-      <c r="FY28" s="143"/>
-      <c r="FZ28" s="143"/>
-      <c r="GA28" s="143"/>
-      <c r="GB28" s="143"/>
-      <c r="GC28" s="143"/>
-      <c r="GD28" s="143"/>
-      <c r="GE28" s="143"/>
-      <c r="GF28" s="143"/>
-      <c r="GG28" s="143"/>
-      <c r="GH28" s="143"/>
-      <c r="GI28" s="143"/>
-      <c r="GJ28" s="143"/>
-      <c r="GK28" s="143"/>
-      <c r="GL28" s="143"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="166"/>
+      <c r="AG28" s="166"/>
+      <c r="AH28" s="166"/>
+      <c r="AI28" s="166"/>
+      <c r="AJ28" s="166"/>
+      <c r="AK28" s="166"/>
+      <c r="AL28" s="166"/>
+      <c r="AM28" s="166"/>
+      <c r="AN28" s="166"/>
+      <c r="AO28" s="166"/>
+      <c r="AP28" s="166"/>
+      <c r="AQ28" s="166"/>
+      <c r="AR28" s="166"/>
+      <c r="AS28" s="166"/>
+      <c r="AT28" s="166"/>
+      <c r="AU28" s="166"/>
+      <c r="AV28" s="166"/>
+      <c r="AW28" s="166"/>
+      <c r="AX28" s="166"/>
+      <c r="AY28" s="166"/>
+      <c r="AZ28" s="166"/>
+      <c r="BA28" s="166"/>
+      <c r="BB28" s="166"/>
+      <c r="BC28" s="166"/>
+      <c r="BD28" s="166"/>
+      <c r="BE28" s="166"/>
+      <c r="BF28" s="166"/>
+      <c r="BG28" s="166"/>
+      <c r="BH28" s="166"/>
+      <c r="BI28" s="166"/>
+      <c r="BJ28" s="166"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="166"/>
+      <c r="BM28" s="166"/>
+      <c r="BN28" s="166"/>
+      <c r="BO28" s="166"/>
+      <c r="BP28" s="166"/>
+      <c r="BQ28" s="166"/>
+      <c r="BR28" s="166"/>
+      <c r="BS28" s="166"/>
+      <c r="BT28" s="166"/>
+      <c r="BU28" s="166"/>
+      <c r="BV28" s="166"/>
+      <c r="BW28" s="166"/>
+      <c r="BX28" s="166"/>
+      <c r="BY28" s="166"/>
+      <c r="BZ28" s="166"/>
+      <c r="CA28" s="166"/>
+      <c r="CB28" s="166"/>
+      <c r="CC28" s="166"/>
+      <c r="CD28" s="166"/>
+      <c r="CE28" s="166"/>
+      <c r="CF28" s="166"/>
+      <c r="CG28" s="166"/>
+      <c r="CH28" s="166"/>
+      <c r="CI28" s="166"/>
+      <c r="CJ28" s="166"/>
+      <c r="CK28" s="166"/>
+      <c r="CL28" s="166"/>
+      <c r="CM28" s="166"/>
+      <c r="CN28" s="166"/>
+      <c r="CO28" s="166"/>
+      <c r="CP28" s="166"/>
+      <c r="CQ28" s="166"/>
+      <c r="CR28" s="166"/>
+      <c r="CS28" s="166"/>
+      <c r="CT28" s="166"/>
+      <c r="CU28" s="166"/>
+      <c r="CV28" s="166"/>
+      <c r="CW28" s="166"/>
+      <c r="CX28" s="166"/>
+      <c r="CY28" s="166"/>
+      <c r="CZ28" s="166"/>
+      <c r="DA28" s="166"/>
+      <c r="DB28" s="166"/>
+      <c r="DC28" s="166"/>
+      <c r="DD28" s="166"/>
+      <c r="DE28" s="166"/>
+      <c r="DF28" s="166"/>
+      <c r="DG28" s="166"/>
+      <c r="DH28" s="166"/>
+      <c r="DI28" s="166"/>
+      <c r="DJ28" s="166"/>
+      <c r="DK28" s="166"/>
+      <c r="DL28" s="166"/>
+      <c r="DM28" s="166"/>
+      <c r="DN28" s="166"/>
+      <c r="DO28" s="166"/>
+      <c r="DP28" s="166"/>
+      <c r="DQ28" s="166"/>
+      <c r="DR28" s="166"/>
+      <c r="DS28" s="166"/>
+      <c r="DT28" s="166"/>
+      <c r="DU28" s="166"/>
+      <c r="DV28" s="166"/>
+      <c r="DW28" s="166"/>
+      <c r="DX28" s="166"/>
+      <c r="DY28" s="166"/>
+      <c r="DZ28" s="166"/>
+      <c r="EA28" s="166"/>
+      <c r="EB28" s="166"/>
+      <c r="EC28" s="166"/>
+      <c r="ED28" s="166"/>
+      <c r="EE28" s="166"/>
+      <c r="EF28" s="166"/>
+      <c r="EG28" s="166"/>
+      <c r="EH28" s="166"/>
+      <c r="EI28" s="166"/>
+      <c r="EJ28" s="166"/>
+      <c r="EK28" s="166"/>
+      <c r="EL28" s="166"/>
+      <c r="EM28" s="166"/>
+      <c r="EN28" s="166"/>
+      <c r="EO28" s="166"/>
+      <c r="EP28" s="166"/>
+      <c r="EQ28" s="166"/>
+      <c r="ER28" s="166"/>
+      <c r="ES28" s="166"/>
+      <c r="ET28" s="166"/>
+      <c r="EU28" s="166"/>
+      <c r="EV28" s="166"/>
+      <c r="EW28" s="166"/>
+      <c r="EX28" s="166"/>
+      <c r="EY28" s="166"/>
+      <c r="EZ28" s="166"/>
+      <c r="FA28" s="166"/>
+      <c r="FB28" s="166"/>
+      <c r="FC28" s="166"/>
+      <c r="FD28" s="166"/>
+      <c r="FE28" s="166"/>
+      <c r="FF28" s="166"/>
+      <c r="FG28" s="166"/>
+      <c r="FH28" s="166"/>
+      <c r="FI28" s="166"/>
+      <c r="FJ28" s="166"/>
+      <c r="FK28" s="166"/>
+      <c r="FL28" s="166"/>
+      <c r="FM28" s="166"/>
+      <c r="FN28" s="166"/>
+      <c r="FO28" s="166"/>
+      <c r="FP28" s="166"/>
+      <c r="FQ28" s="166"/>
+      <c r="FR28" s="166"/>
+      <c r="FS28" s="166"/>
+      <c r="FT28" s="166"/>
+      <c r="FU28" s="166"/>
+      <c r="FV28" s="166"/>
+      <c r="FW28" s="166"/>
+      <c r="FX28" s="166"/>
+      <c r="FY28" s="166"/>
+      <c r="FZ28" s="166"/>
+      <c r="GA28" s="166"/>
+      <c r="GB28" s="166"/>
+      <c r="GC28" s="166"/>
+      <c r="GD28" s="166"/>
+      <c r="GE28" s="166"/>
+      <c r="GF28" s="166"/>
+      <c r="GG28" s="166"/>
+      <c r="GH28" s="166"/>
+      <c r="GI28" s="166"/>
+      <c r="GJ28" s="166"/>
+      <c r="GK28" s="166"/>
+      <c r="GL28" s="166"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="144"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="142"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -5006,16 +5088,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="142"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -5027,6 +5109,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5040,28 +5144,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5088,14 +5170,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5288,11 +5370,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="209" t="s">
+      <c r="E27" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="210"/>
-      <c r="G27" s="211"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="219"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5616,10 +5698,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5630,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5646,8 +5728,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5686,14 +5768,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="172" t="s">
+      <c r="E4" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1">
       <c r="A5" s="40">
@@ -5708,14 +5790,14 @@
       <c r="D5" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="173" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+      <c r="E5" s="177" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5726,12 +5808,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="181"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5742,12 +5824,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -5758,12 +5840,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -5774,12 +5856,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="167"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -5790,12 +5872,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="167"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -5806,12 +5888,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="167"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -5822,12 +5904,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -5838,12 +5920,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -5854,12 +5936,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="167"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="171"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5870,12 +5952,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5886,12 +5968,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5902,12 +5984,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5918,12 +6000,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -5934,12 +6016,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -5950,12 +6032,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -5966,12 +6048,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -5982,12 +6064,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -5998,12 +6080,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -6014,12 +6096,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6030,12 +6112,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6046,12 +6128,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -6062,12 +6144,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -6078,12 +6160,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -6094,12 +6176,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -6110,12 +6192,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6126,12 +6208,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6142,12 +6224,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6158,12 +6240,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6174,12 +6256,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6190,12 +6272,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6206,12 +6288,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6222,12 +6304,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6238,12 +6320,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6254,12 +6336,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6270,12 +6352,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6286,12 +6368,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6302,23 +6384,32 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6334,23 +6425,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6375,8 +6457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6388,16 +6470,16 @@
     <col min="5" max="5" width="12.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="77.7109375" style="22" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6427,8 +6509,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6458,20 +6540,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="177" t="s">
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="178"/>
+      <c r="J4" s="183"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6482,10 +6564,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="186" t="s">
+      <c r="I5" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="187"/>
+      <c r="J5" s="192"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6496,8 +6578,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="189"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6508,8 +6590,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="189"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6520,8 +6602,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="189"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6532,8 +6614,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6544,8 +6626,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6556,10 +6638,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="178"/>
+      <c r="J11" s="183"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6570,10 +6652,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="J12" s="181"/>
+      <c r="I12" s="185" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="186"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6584,8 +6666,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="183"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="188"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6596,8 +6678,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="188"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6608,8 +6690,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6620,8 +6702,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="188"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6632,8 +6714,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6644,8 +6726,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="183"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6656,8 +6738,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6668,8 +6750,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6680,8 +6762,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6692,8 +6774,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="188"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6704,8 +6786,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="188"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6716,8 +6798,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="183"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="188"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6728,8 +6810,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6740,8 +6822,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="183"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6752,8 +6834,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="188"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6764,8 +6846,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="183"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="188"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6776,8 +6858,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="188"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6788,8 +6870,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="188"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6800,8 +6882,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="183"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="188"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6812,8 +6894,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="183"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="188"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6824,8 +6906,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="183"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6836,8 +6918,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="188"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6848,8 +6930,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="188"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6860,8 +6942,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="183"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="188"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6872,8 +6954,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="183"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6884,8 +6966,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="183"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="188"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6896,8 +6978,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="183"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6908,8 +6990,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6920,8 +7002,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="183"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="188"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6932,8 +7014,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="183"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="188"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6944,8 +7026,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="185"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6957,7 +7039,7 @@
     <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
@@ -6965,6 +7047,9 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="43" max="9" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="42" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <legacyDrawingHF r:id="rId4"/>
@@ -6973,13 +7058,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35:P37"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7004,13 +7089,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7018,15 +7103,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="192" t="s">
+      <c r="H1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="193"/>
-      <c r="J1" s="194" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="195"/>
-      <c r="L1" s="196"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="199" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7042,11 +7127,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7054,16 +7139,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="H2" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="193"/>
-      <c r="J2" s="194" t="str">
+      <c r="I2" s="198"/>
+      <c r="J2" s="199" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo thống kê thời gian giao hàng</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="196"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="201"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7083,7 +7168,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>161</v>
@@ -7176,14 +7261,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="127" t="s">
-        <v>172</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G6" s="127"/>
       <c r="H6" s="40" t="s">
         <v>164</v>
       </c>
@@ -7214,14 +7297,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="126" t="s">
-        <v>188</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G7" s="126"/>
       <c r="H7" s="40" t="s">
         <v>164</v>
       </c>
@@ -7238,24 +7319,28 @@
       <c r="O7" s="86"/>
       <c r="P7" s="86"/>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="22.5">
-      <c r="A8" s="33">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A8" s="220">
         <v>4</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="220">
         <v>51</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="220" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="222">
         <v>4</v>
       </c>
-      <c r="E8" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
+      <c r="E8" s="224" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="126" t="s">
+        <v>235</v>
+      </c>
       <c r="H8" s="40" t="s">
         <v>164</v>
       </c>
@@ -7270,47 +7355,31 @@
       <c r="O8" s="68"/>
       <c r="P8" s="86"/>
     </row>
-    <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="33">
-        <v>5</v>
-      </c>
-      <c r="B9" s="33">
-        <v>51</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="129">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E9" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="126" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>165</v>
-      </c>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A9" s="221"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
-      <c r="L9" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="33">
         <v>51</v>
@@ -7319,16 +7388,16 @@
         <v>162</v>
       </c>
       <c r="D10" s="129">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="131" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F10" s="126" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G10" s="126" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>164</v>
@@ -7341,14 +7410,14 @@
       <c r="L10" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
       <c r="P10" s="86"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="33">
         <v>51</v>
@@ -7357,17 +7426,15 @@
         <v>162</v>
       </c>
       <c r="D11" s="129">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="131" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="F11" s="126" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="126" t="s">
-        <v>191</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G11" s="126"/>
       <c r="H11" s="40" t="s">
         <v>164</v>
       </c>
@@ -7379,14 +7446,14 @@
       <c r="L11" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="82"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="68"/>
       <c r="O11" s="68"/>
       <c r="P11" s="86"/>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="11.25">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="33">
         <v>51</v>
@@ -7395,17 +7462,15 @@
         <v>162</v>
       </c>
       <c r="D12" s="129">
-        <v>4.4000000000000004</v>
+        <v>7</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="F12" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="126" t="s">
-        <v>192</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G12" s="126"/>
       <c r="H12" s="40" t="s">
         <v>164</v>
       </c>
@@ -7417,14 +7482,14 @@
       <c r="L12" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="88"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
       <c r="P12" s="86"/>
     </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A13" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="33">
         <v>51</v>
@@ -7433,16 +7498,16 @@
         <v>162</v>
       </c>
       <c r="D13" s="129">
-        <v>4.5</v>
+        <v>7.1</v>
       </c>
       <c r="E13" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="126" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="F13" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="142" t="s">
+        <v>183</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>164</v>
@@ -7460,9 +7525,9 @@
       <c r="O13" s="68"/>
       <c r="P13" s="86"/>
     </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="22.5">
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="33">
         <v>51</v>
@@ -7471,30 +7536,36 @@
         <v>162</v>
       </c>
       <c r="D14" s="129">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="E14" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
+        <v>173</v>
+      </c>
+      <c r="F14" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="142" t="s">
+        <v>184</v>
+      </c>
       <c r="H14" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="40" t="s">
+        <v>165</v>
+      </c>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
       <c r="L14" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="68"/>
       <c r="O14" s="68"/>
       <c r="P14" s="86"/>
     </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A15" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="33">
         <v>51</v>
@@ -7503,23 +7574,21 @@
         <v>162</v>
       </c>
       <c r="D15" s="129">
-        <v>5.0999999999999996</v>
+        <v>7.3</v>
       </c>
       <c r="E15" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="126" t="s">
-        <v>194</v>
+        <v>174</v>
+      </c>
+      <c r="F15" s="142" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="142" t="s">
+        <v>185</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="40" t="s">
-        <v>165</v>
-      </c>
+      <c r="I15" s="40"/>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
       <c r="L15" s="40" t="s">
@@ -7532,7 +7601,7 @@
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="33">
         <v>51</v>
@@ -7541,16 +7610,16 @@
         <v>162</v>
       </c>
       <c r="D16" s="129">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="E16" s="131" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="126" t="s">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="F16" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>186</v>
       </c>
       <c r="H16" s="40" t="s">
         <v>164</v>
@@ -7570,7 +7639,7 @@
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="33">
         <v>51</v>
@@ -7579,16 +7648,16 @@
         <v>162</v>
       </c>
       <c r="D17" s="129">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="E17" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="126" t="s">
-        <v>196</v>
+        <v>176</v>
+      </c>
+      <c r="F17" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="142" t="s">
+        <v>187</v>
       </c>
       <c r="H17" s="40" t="s">
         <v>164</v>
@@ -7597,18 +7666,18 @@
         <v>165</v>
       </c>
       <c r="J17" s="61"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="68"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="68"/>
       <c r="O17" s="68"/>
       <c r="P17" s="86"/>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="33">
         <v>51</v>
@@ -7617,36 +7686,32 @@
         <v>162</v>
       </c>
       <c r="D18" s="129">
-        <v>5.4</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="126" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="126" t="s">
-        <v>197</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="40" t="s">
         <v>164</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="68"/>
       <c r="P18" s="86"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="33">
         <v>51</v>
@@ -7654,17 +7719,17 @@
       <c r="C19" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="130">
-        <v>5.5</v>
+      <c r="D19" s="129">
+        <v>8.1</v>
       </c>
       <c r="E19" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="126" t="s">
-        <v>198</v>
+        <v>178</v>
+      </c>
+      <c r="F19" s="142" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="142" t="s">
+        <v>188</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>164</v>
@@ -7679,12 +7744,12 @@
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="82"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="86"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="33">
         <v>51</v>
@@ -7693,16 +7758,16 @@
         <v>162</v>
       </c>
       <c r="D20" s="130">
-        <v>5.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E20" s="131" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="126" t="s">
-        <v>199</v>
+        <v>174</v>
+      </c>
+      <c r="F20" s="142" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="142" t="s">
+        <v>189</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>164</v>
@@ -7717,12 +7782,12 @@
       </c>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="68"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="86"/>
     </row>
-    <row r="21" spans="1:16" s="34" customFormat="1" ht="33.75">
+    <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="33">
         <v>51</v>
@@ -7730,18 +7795,24 @@
       <c r="C21" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="35">
-        <v>6</v>
-      </c>
-      <c r="E21" s="132" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
+      <c r="D21" s="129">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E21" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="142" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="142" t="s">
+        <v>190</v>
+      </c>
       <c r="H21" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="40" t="s">
+        <v>165</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40" t="s">
@@ -7752,9 +7823,9 @@
       <c r="O21" s="68"/>
       <c r="P21" s="86"/>
     </row>
-    <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="33">
         <v>51</v>
@@ -7762,24 +7833,22 @@
       <c r="C22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="35">
-        <v>6.1</v>
+      <c r="D22" s="130">
+        <v>8.4</v>
       </c>
       <c r="E22" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="127" t="s">
-        <v>206</v>
+        <v>180</v>
+      </c>
+      <c r="F22" s="142" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="142" t="s">
+        <v>191</v>
       </c>
       <c r="H22" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="40" t="s">
-        <v>165</v>
-      </c>
+      <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="40" t="s">
@@ -7787,12 +7856,12 @@
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="86"/>
+      <c r="O22" s="68"/>
       <c r="P22" s="86"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="33">
         <v>51</v>
@@ -7800,17 +7869,17 @@
       <c r="C23" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="35">
-        <v>6.2</v>
+      <c r="D23" s="129">
+        <v>8.5</v>
       </c>
       <c r="E23" s="131" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="127" t="s">
-        <v>207</v>
+        <v>181</v>
+      </c>
+      <c r="F23" s="142" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="142" t="s">
+        <v>192</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>164</v>
@@ -7825,12 +7894,12 @@
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="68"/>
+      <c r="O23" s="86"/>
       <c r="P23" s="86"/>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="33">
         <v>51</v>
@@ -7838,17 +7907,17 @@
       <c r="C24" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="35">
-        <v>6.3</v>
+      <c r="D24" s="130">
+        <v>8.6</v>
       </c>
       <c r="E24" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="127" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="127" t="s">
-        <v>208</v>
+      <c r="F24" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="142" t="s">
+        <v>193</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>164</v>
@@ -7857,18 +7926,18 @@
         <v>165</v>
       </c>
       <c r="J24" s="40"/>
-      <c r="K24" s="60"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="32"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="86"/>
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="33">
         <v>51</v>
@@ -7877,17 +7946,13 @@
         <v>162</v>
       </c>
       <c r="D25" s="35">
-        <v>6.4</v>
-      </c>
-      <c r="E25" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="127" t="s">
-        <v>209</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E25" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="40" t="s">
         <v>164</v>
       </c>
@@ -7899,14 +7964,14 @@
       <c r="L25" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="M25" s="61"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="33">
         <v>51</v>
@@ -7915,16 +7980,16 @@
         <v>162</v>
       </c>
       <c r="D26" s="35">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="E26" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" s="127" t="s">
-        <v>210</v>
+        <v>178</v>
+      </c>
+      <c r="F26" s="141" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="141" t="s">
+        <v>200</v>
       </c>
       <c r="H26" s="40" t="s">
         <v>164</v>
@@ -7944,7 +8009,7 @@
     </row>
     <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="33">
         <v>51</v>
@@ -7953,16 +8018,16 @@
         <v>162</v>
       </c>
       <c r="D27" s="35">
-        <v>6.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E27" s="131" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="127" t="s">
-        <v>211</v>
+        <v>174</v>
+      </c>
+      <c r="F27" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="141" t="s">
+        <v>201</v>
       </c>
       <c r="H27" s="40" t="s">
         <v>164</v>
@@ -7980,9 +8045,9 @@
       <c r="O27" s="60"/>
       <c r="P27" s="32"/>
     </row>
-    <row r="28" spans="1:16" s="34" customFormat="1" ht="33.75">
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="33">
         <v>51</v>
@@ -7991,17 +8056,23 @@
         <v>162</v>
       </c>
       <c r="D28" s="35">
-        <v>7</v>
-      </c>
-      <c r="E28" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E28" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="141" t="s">
+        <v>202</v>
+      </c>
       <c r="H28" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="40" t="s">
+        <v>165</v>
+      </c>
       <c r="J28" s="40"/>
       <c r="K28" s="60"/>
       <c r="L28" s="40" t="s">
@@ -8012,9 +8083,9 @@
       <c r="O28" s="60"/>
       <c r="P28" s="32"/>
     </row>
-    <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:16" s="34" customFormat="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="33">
         <v>51</v>
@@ -8023,23 +8094,21 @@
         <v>162</v>
       </c>
       <c r="D29" s="35">
-        <v>7.1</v>
+        <v>9.4</v>
       </c>
       <c r="E29" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="127" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="127" t="s">
-        <v>200</v>
+        <v>180</v>
+      </c>
+      <c r="F29" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="141" t="s">
+        <v>203</v>
       </c>
       <c r="H29" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I29" s="40" t="s">
-        <v>165</v>
-      </c>
+      <c r="I29" s="40"/>
       <c r="J29" s="40"/>
       <c r="K29" s="60"/>
       <c r="L29" s="40" t="s">
@@ -8052,7 +8121,7 @@
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="33">
         <v>51</v>
@@ -8061,16 +8130,16 @@
         <v>162</v>
       </c>
       <c r="D30" s="35">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="E30" s="131" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="127" t="s">
-        <v>201</v>
-      </c>
-      <c r="G30" s="127" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="F30" s="141" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="141" t="s">
+        <v>204</v>
       </c>
       <c r="H30" s="40" t="s">
         <v>164</v>
@@ -8090,7 +8159,7 @@
     </row>
     <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="33">
         <v>51</v>
@@ -8099,16 +8168,16 @@
         <v>162</v>
       </c>
       <c r="D31" s="35">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="E31" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="127" t="s">
-        <v>202</v>
+      <c r="F31" s="141" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="141" t="s">
+        <v>205</v>
       </c>
       <c r="H31" s="40" t="s">
         <v>164</v>
@@ -8128,7 +8197,7 @@
     </row>
     <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="33">
         <v>51</v>
@@ -8137,17 +8206,13 @@
         <v>162</v>
       </c>
       <c r="D32" s="35">
-        <v>7.4</v>
-      </c>
-      <c r="E32" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="127" t="s">
-        <v>203</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E32" s="141" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
       <c r="H32" s="40" t="s">
         <v>164</v>
       </c>
@@ -8166,7 +8231,7 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="33">
         <v>51</v>
@@ -8175,16 +8240,16 @@
         <v>162</v>
       </c>
       <c r="D33" s="35">
-        <v>7.5</v>
+        <v>10.1</v>
       </c>
       <c r="E33" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="127" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="127" t="s">
-        <v>204</v>
+        <v>178</v>
+      </c>
+      <c r="F33" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="141" t="s">
+        <v>194</v>
       </c>
       <c r="H33" s="40" t="s">
         <v>164</v>
@@ -8204,7 +8269,7 @@
     </row>
     <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="33">
         <v>51</v>
@@ -8213,16 +8278,16 @@
         <v>162</v>
       </c>
       <c r="D34" s="35">
-        <v>7.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E34" s="131" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="127" t="s">
-        <v>205</v>
-      </c>
-      <c r="G34" s="127" t="s">
-        <v>205</v>
+        <v>174</v>
+      </c>
+      <c r="F34" s="141" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="141" t="s">
+        <v>195</v>
       </c>
       <c r="H34" s="40" t="s">
         <v>164</v>
@@ -8242,7 +8307,7 @@
     </row>
     <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="33">
         <v>51</v>
@@ -8251,30 +8316,36 @@
         <v>162</v>
       </c>
       <c r="D35" s="35">
-        <v>8</v>
-      </c>
-      <c r="E35" s="141" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="139" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="139"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+        <v>10.3</v>
+      </c>
+      <c r="E35" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>165</v>
+      </c>
       <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="139"/>
-      <c r="P35" s="139" t="s">
-        <v>220</v>
-      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="M35" s="61"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="33">
         <v>51</v>
@@ -8283,15 +8354,17 @@
         <v>162</v>
       </c>
       <c r="D36" s="35">
-        <v>9</v>
-      </c>
-      <c r="E36" s="141" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="139"/>
+        <v>10.4</v>
+      </c>
+      <c r="E36" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="141" t="s">
+        <v>197</v>
+      </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -8301,12 +8374,12 @@
       <c r="N36" s="40"/>
       <c r="O36" s="139"/>
       <c r="P36" s="139" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="33">
         <v>51</v>
@@ -8315,15 +8388,17 @@
         <v>162</v>
       </c>
       <c r="D37" s="35">
-        <v>10</v>
-      </c>
-      <c r="E37" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="F37" s="139" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="139"/>
+        <v>10.5</v>
+      </c>
+      <c r="E37" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="141" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="141" t="s">
+        <v>198</v>
+      </c>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
@@ -8333,32 +8408,46 @@
       <c r="N37" s="40"/>
       <c r="O37" s="139"/>
       <c r="P37" s="139" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="40"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="33">
+        <v>51</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="35">
+        <v>10.6</v>
+      </c>
+      <c r="E38" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="141" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="141" t="s">
+        <v>199</v>
+      </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="60"/>
+      <c r="K38" s="40"/>
       <c r="L38" s="40"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="32"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="139"/>
+      <c r="P38" s="139" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -8378,7 +8467,7 @@
     </row>
     <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -8398,7 +8487,7 @@
     </row>
     <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -8418,7 +8507,7 @@
     </row>
     <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -8438,7 +8527,7 @@
     </row>
     <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -8458,7 +8547,7 @@
     </row>
     <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -8478,7 +8567,7 @@
     </row>
     <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -8498,7 +8587,7 @@
     </row>
     <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -8518,7 +8607,7 @@
     </row>
     <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -8538,14 +8627,14 @@
     </row>
     <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="35"/>
       <c r="E48" s="127"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
@@ -8558,14 +8647,14 @@
     </row>
     <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="35"/>
       <c r="E49" s="127"/>
       <c r="F49" s="73"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -8578,14 +8667,14 @@
     </row>
     <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="35"/>
       <c r="E50" s="127"/>
       <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
@@ -8598,14 +8687,14 @@
     </row>
     <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
       <c r="D51" s="35"/>
       <c r="E51" s="127"/>
       <c r="F51" s="73"/>
-      <c r="G51" s="40"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
@@ -8618,7 +8707,7 @@
     </row>
     <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -8638,7 +8727,7 @@
     </row>
     <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -8658,7 +8747,7 @@
     </row>
     <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -8676,8 +8765,33 @@
       <c r="O54" s="60"/>
       <c r="P54" s="32"/>
     </row>
+    <row r="55" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="33">
+        <v>50</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -8685,20 +8799,20 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24:N24 N25:O34 N38:O54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25:N25 N26:O35 N39:O55">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I35 I38:I54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I36 I39:I55">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G38:G54"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G39:G55"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L55">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H34 H38:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H35 H39:H55">
       <formula1>"Caption,Textbox,DateTimePicker,GridColumn,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35:H37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36:H38">
       <formula1>"Caption,Textbox,DateTimePicker,Grid Column,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9701,7 +9815,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="123"/>
@@ -9736,7 +9850,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
+      <c r="A2" s="208"/>
       <c r="B2" s="124"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9784,15 +9898,15 @@
       <c r="E4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="171" t="s">
+      <c r="F4" s="175" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171" t="s">
+      <c r="G4" s="175"/>
+      <c r="H4" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -9802,11 +9916,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="125"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="203"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="204"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9816,11 +9930,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9830,11 +9944,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="203"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="204"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9844,11 +9958,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="204"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9858,11 +9972,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="203"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="204"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9872,11 +9986,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9886,11 +10000,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9900,11 +10014,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="204"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9914,11 +10028,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="203"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="204"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9928,11 +10042,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9942,11 +10056,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="203"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9956,11 +10070,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9970,11 +10084,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9984,11 +10098,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9998,11 +10112,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="204"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -10012,11 +10126,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -10026,11 +10140,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="203"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -10040,11 +10154,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="203"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -10054,11 +10168,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="203"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -10068,11 +10182,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="203"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -10082,11 +10196,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="203"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -10096,11 +10210,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="203"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -10110,11 +10224,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="203"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="204"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -10124,11 +10238,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="204"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -10138,11 +10252,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="203"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="204"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -10152,11 +10266,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -10166,11 +10280,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="203"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -10180,11 +10294,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="203"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -10201,11 +10315,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -10222,11 +10336,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="203"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -10243,11 +10357,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="203"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -10264,11 +10378,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="203"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -10285,11 +10399,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="203"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -10306,11 +10420,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="203"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="204"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -10327,11 +10441,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="203"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -10348,11 +10462,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="204"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -10369,11 +10483,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="203"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -10390,11 +10504,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="201"/>
-      <c r="I42" s="202"/>
-      <c r="J42" s="203"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="204"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -10411,11 +10525,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="201"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="203"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="204"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -10432,11 +10546,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="201"/>
-      <c r="I44" s="202"/>
-      <c r="J44" s="203"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="204"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -10453,11 +10567,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="201"/>
-      <c r="I45" s="202"/>
-      <c r="J45" s="203"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="204"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -10474,11 +10588,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="165"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="201"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="203"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="204"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10495,11 +10609,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="165"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="201"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="203"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="204"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10516,11 +10630,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="201"/>
-      <c r="I48" s="202"/>
-      <c r="J48" s="203"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="202"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="204"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10537,11 +10651,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="201"/>
-      <c r="I49" s="202"/>
-      <c r="J49" s="203"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="204"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10558,11 +10672,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="202"/>
-      <c r="J50" s="203"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="202"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="204"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10579,11 +10693,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="201"/>
-      <c r="I51" s="202"/>
-      <c r="J51" s="203"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="202"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="204"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10600,11 +10714,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="202"/>
-      <c r="J52" s="203"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="204"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10621,11 +10735,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="202"/>
-      <c r="J53" s="203"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="204"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10642,11 +10756,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="202"/>
-      <c r="J54" s="203"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="204"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10663,11 +10777,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="202"/>
-      <c r="J55" s="203"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="203"/>
+      <c r="J55" s="204"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10684,11 +10798,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="201"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="203"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="204"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10700,6 +10814,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10714,99 +10921,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10824,7 +10938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -10854,24 +10968,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="207" t="str">
+      <c r="J1" s="212" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="207"/>
+      <c r="K1" s="212"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10898,22 +11012,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="207" t="str">
+      <c r="J2" s="212" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="207"/>
+      <c r="K2" s="212"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10944,7 +11058,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -10970,12 +11084,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="177" t="s">
+      <c r="K4" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="178"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="183"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10992,7 +11106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="218" customFormat="1" ht="90">
+    <row r="5" spans="1:21" s="146" customFormat="1" ht="90">
       <c r="A5" s="140">
         <v>1</v>
       </c>
@@ -11005,38 +11119,38 @@
       <c r="D5" s="140"/>
       <c r="E5" s="140"/>
       <c r="F5" s="140"/>
-      <c r="G5" s="212" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="212" t="s">
+      <c r="G5" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="212" t="s">
-        <v>226</v>
-      </c>
-      <c r="J5" s="213" t="s">
+      <c r="I5" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="215" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="213" t="s">
-        <v>232</v>
-      </c>
-      <c r="P5" s="213" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="214" t="s">
-        <v>214</v>
-      </c>
-      <c r="R5" s="214" t="s">
+      <c r="K5" s="213" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="P5" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q5" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="R5" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="S5" s="212" t="s">
-        <v>227</v>
+      <c r="S5" s="143" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
@@ -11052,10 +11166,10 @@
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="81"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="206"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="211"/>
       <c r="O6" s="86"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="75"/>
@@ -11077,10 +11191,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="81"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="206"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="211"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
       <c r="Q7" s="75"/>
@@ -11102,10 +11216,10 @@
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="206"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="210"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="211"/>
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="75"/>
@@ -11127,10 +11241,10 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="206"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="211"/>
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="75"/>
@@ -11152,10 +11266,10 @@
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="206"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="211"/>
       <c r="O10" s="87"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="75"/>
@@ -11177,10 +11291,10 @@
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="206"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="210"/>
+      <c r="N11" s="211"/>
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="75"/>
@@ -11202,10 +11316,10 @@
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="206"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="211"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="75"/>
@@ -11227,10 +11341,10 @@
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="206"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="211"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="75"/>
@@ -11252,10 +11366,10 @@
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="206"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="210"/>
+      <c r="N14" s="211"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="75"/>
@@ -11277,10 +11391,10 @@
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="206"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="211"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="75"/>
@@ -11302,10 +11416,10 @@
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="206"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="210"/>
+      <c r="M16" s="210"/>
+      <c r="N16" s="211"/>
       <c r="O16" s="71"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="75"/>
@@ -11327,10 +11441,10 @@
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="205"/>
-      <c r="N17" s="206"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="210"/>
+      <c r="N17" s="211"/>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="75"/>
@@ -11352,10 +11466,10 @@
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="206"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="210"/>
+      <c r="N18" s="211"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="75"/>
@@ -11377,10 +11491,10 @@
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="206"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="210"/>
+      <c r="N19" s="211"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="75"/>
@@ -11402,10 +11516,10 @@
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="206"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="211"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="75"/>
@@ -11427,10 +11541,10 @@
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="206"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="210"/>
+      <c r="N21" s="211"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="75"/>
@@ -11452,10 +11566,10 @@
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="206"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="211"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="75"/>
@@ -11477,10 +11591,10 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="206"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
+      <c r="N23" s="211"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="75"/>
@@ -11502,10 +11616,10 @@
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="206"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="210"/>
+      <c r="N24" s="211"/>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="75"/>
@@ -11527,10 +11641,10 @@
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="205"/>
-      <c r="N25" s="206"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="211"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="75"/>
@@ -11552,10 +11666,10 @@
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="206"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="210"/>
+      <c r="M26" s="210"/>
+      <c r="N26" s="211"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="75"/>
@@ -11577,10 +11691,10 @@
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="206"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="211"/>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="75"/>
@@ -11602,10 +11716,10 @@
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="206"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="210"/>
+      <c r="M28" s="210"/>
+      <c r="N28" s="211"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="75"/>
@@ -11627,10 +11741,10 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="206"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="210"/>
+      <c r="N29" s="211"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="75"/>
@@ -11652,10 +11766,10 @@
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="204"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="206"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="210"/>
+      <c r="N30" s="211"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="75"/>
@@ -11677,10 +11791,10 @@
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="206"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="210"/>
+      <c r="M31" s="210"/>
+      <c r="N31" s="211"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="75"/>
@@ -11702,10 +11816,10 @@
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="206"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="211"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="75"/>
@@ -11727,10 +11841,10 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="206"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="210"/>
+      <c r="M33" s="210"/>
+      <c r="N33" s="211"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="75"/>
@@ -11752,10 +11866,10 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="205"/>
-      <c r="M34" s="205"/>
-      <c r="N34" s="206"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="210"/>
+      <c r="M34" s="210"/>
+      <c r="N34" s="211"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="75"/>
@@ -11777,10 +11891,10 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="206"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="211"/>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="75"/>
@@ -11802,10 +11916,10 @@
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="205"/>
-      <c r="M36" s="205"/>
-      <c r="N36" s="206"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="210"/>
+      <c r="M36" s="210"/>
+      <c r="N36" s="211"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="75"/>
@@ -11827,10 +11941,10 @@
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="206"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="210"/>
+      <c r="M37" s="210"/>
+      <c r="N37" s="211"/>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="75"/>
@@ -11852,10 +11966,10 @@
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="206"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="210"/>
+      <c r="M38" s="210"/>
+      <c r="N38" s="211"/>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="75"/>
@@ -11877,10 +11991,10 @@
       <c r="H39" s="62"/>
       <c r="I39" s="62"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="206"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="210"/>
+      <c r="M39" s="210"/>
+      <c r="N39" s="211"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="75"/>
@@ -11902,10 +12016,10 @@
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="205"/>
-      <c r="M40" s="205"/>
-      <c r="N40" s="206"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="210"/>
+      <c r="M40" s="210"/>
+      <c r="N40" s="211"/>
       <c r="O40" s="73"/>
       <c r="P40" s="73"/>
       <c r="Q40" s="75"/>
@@ -11927,10 +12041,10 @@
       <c r="H41" s="62"/>
       <c r="I41" s="62"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="206"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="210"/>
+      <c r="M41" s="210"/>
+      <c r="N41" s="211"/>
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="75"/>
@@ -11952,10 +12066,10 @@
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="205"/>
-      <c r="M42" s="205"/>
-      <c r="N42" s="206"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="210"/>
+      <c r="N42" s="211"/>
       <c r="O42" s="73"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="75"/>
@@ -11977,10 +12091,10 @@
       <c r="H43" s="62"/>
       <c r="I43" s="62"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="204"/>
-      <c r="L43" s="205"/>
-      <c r="M43" s="205"/>
-      <c r="N43" s="206"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="210"/>
+      <c r="N43" s="211"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="75"/>
@@ -12002,10 +12116,10 @@
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="204"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="206"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="211"/>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="75"/>
@@ -12027,10 +12141,10 @@
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="204"/>
-      <c r="L45" s="205"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="206"/>
+      <c r="K45" s="209"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="210"/>
+      <c r="N45" s="211"/>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="75"/>
@@ -12052,10 +12166,10 @@
       <c r="H46" s="62"/>
       <c r="I46" s="62"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="204"/>
-      <c r="L46" s="205"/>
-      <c r="M46" s="205"/>
-      <c r="N46" s="206"/>
+      <c r="K46" s="209"/>
+      <c r="L46" s="210"/>
+      <c r="M46" s="210"/>
+      <c r="N46" s="211"/>
       <c r="O46" s="73"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="75"/>
@@ -12077,10 +12191,10 @@
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="204"/>
-      <c r="L47" s="205"/>
-      <c r="M47" s="205"/>
-      <c r="N47" s="206"/>
+      <c r="K47" s="209"/>
+      <c r="L47" s="210"/>
+      <c r="M47" s="210"/>
+      <c r="N47" s="211"/>
       <c r="O47" s="73"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="75"/>
@@ -12102,10 +12216,10 @@
       <c r="H48" s="62"/>
       <c r="I48" s="62"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="205"/>
-      <c r="M48" s="205"/>
-      <c r="N48" s="206"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="210"/>
+      <c r="M48" s="210"/>
+      <c r="N48" s="211"/>
       <c r="O48" s="73"/>
       <c r="P48" s="73"/>
       <c r="Q48" s="75"/>
@@ -12127,10 +12241,10 @@
       <c r="H49" s="62"/>
       <c r="I49" s="62"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="204"/>
-      <c r="L49" s="205"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="206"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="210"/>
+      <c r="M49" s="210"/>
+      <c r="N49" s="211"/>
       <c r="O49" s="73"/>
       <c r="P49" s="73"/>
       <c r="Q49" s="75"/>
@@ -12152,10 +12266,10 @@
       <c r="H50" s="62"/>
       <c r="I50" s="62"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="204"/>
-      <c r="L50" s="205"/>
-      <c r="M50" s="205"/>
-      <c r="N50" s="206"/>
+      <c r="K50" s="209"/>
+      <c r="L50" s="210"/>
+      <c r="M50" s="210"/>
+      <c r="N50" s="211"/>
       <c r="O50" s="73"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="75"/>
@@ -12177,10 +12291,10 @@
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="204"/>
-      <c r="L51" s="205"/>
-      <c r="M51" s="205"/>
-      <c r="N51" s="206"/>
+      <c r="K51" s="209"/>
+      <c r="L51" s="210"/>
+      <c r="M51" s="210"/>
+      <c r="N51" s="211"/>
       <c r="O51" s="73"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="75"/>
@@ -12202,10 +12316,10 @@
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="204"/>
-      <c r="L52" s="205"/>
-      <c r="M52" s="205"/>
-      <c r="N52" s="206"/>
+      <c r="K52" s="209"/>
+      <c r="L52" s="210"/>
+      <c r="M52" s="210"/>
+      <c r="N52" s="211"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="75"/>
@@ -12227,10 +12341,10 @@
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="204"/>
-      <c r="L53" s="205"/>
-      <c r="M53" s="205"/>
-      <c r="N53" s="206"/>
+      <c r="K53" s="209"/>
+      <c r="L53" s="210"/>
+      <c r="M53" s="210"/>
+      <c r="N53" s="211"/>
       <c r="O53" s="73"/>
       <c r="P53" s="73"/>
       <c r="Q53" s="75"/>
@@ -12252,10 +12366,10 @@
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="204"/>
-      <c r="L54" s="205"/>
-      <c r="M54" s="205"/>
-      <c r="N54" s="206"/>
+      <c r="K54" s="209"/>
+      <c r="L54" s="210"/>
+      <c r="M54" s="210"/>
+      <c r="N54" s="211"/>
       <c r="O54" s="73"/>
       <c r="P54" s="73"/>
       <c r="Q54" s="75"/>
@@ -12277,10 +12391,10 @@
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="204"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="206"/>
+      <c r="K55" s="209"/>
+      <c r="L55" s="210"/>
+      <c r="M55" s="210"/>
+      <c r="N55" s="211"/>
       <c r="O55" s="73"/>
       <c r="P55" s="73"/>
       <c r="Q55" s="75"/>
@@ -12302,10 +12416,10 @@
       <c r="H56" s="62"/>
       <c r="I56" s="62"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="204"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="206"/>
+      <c r="K56" s="209"/>
+      <c r="L56" s="210"/>
+      <c r="M56" s="210"/>
+      <c r="N56" s="211"/>
       <c r="O56" s="73"/>
       <c r="P56" s="73"/>
       <c r="Q56" s="75"/>
@@ -12327,10 +12441,10 @@
       <c r="H57" s="62"/>
       <c r="I57" s="62"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="204"/>
-      <c r="L57" s="205"/>
-      <c r="M57" s="205"/>
-      <c r="N57" s="206"/>
+      <c r="K57" s="209"/>
+      <c r="L57" s="210"/>
+      <c r="M57" s="210"/>
+      <c r="N57" s="211"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73"/>
       <c r="Q57" s="75"/>
@@ -12352,10 +12466,10 @@
       <c r="H58" s="62"/>
       <c r="I58" s="62"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="204"/>
-      <c r="L58" s="205"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="206"/>
+      <c r="K58" s="209"/>
+      <c r="L58" s="210"/>
+      <c r="M58" s="210"/>
+      <c r="N58" s="211"/>
       <c r="O58" s="73"/>
       <c r="P58" s="73"/>
       <c r="Q58" s="75"/>
@@ -12377,10 +12491,10 @@
       <c r="H59" s="62"/>
       <c r="I59" s="62"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="204"/>
-      <c r="L59" s="205"/>
-      <c r="M59" s="205"/>
-      <c r="N59" s="206"/>
+      <c r="K59" s="209"/>
+      <c r="L59" s="210"/>
+      <c r="M59" s="210"/>
+      <c r="N59" s="211"/>
       <c r="O59" s="73"/>
       <c r="P59" s="73"/>
       <c r="Q59" s="75"/>
@@ -12402,10 +12516,10 @@
       <c r="H60" s="62"/>
       <c r="I60" s="62"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="204"/>
-      <c r="L60" s="205"/>
-      <c r="M60" s="205"/>
-      <c r="N60" s="206"/>
+      <c r="K60" s="209"/>
+      <c r="L60" s="210"/>
+      <c r="M60" s="210"/>
+      <c r="N60" s="211"/>
       <c r="O60" s="73"/>
       <c r="P60" s="73"/>
       <c r="Q60" s="75"/>
@@ -12427,10 +12541,10 @@
       <c r="H61" s="62"/>
       <c r="I61" s="62"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="204"/>
-      <c r="L61" s="205"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="206"/>
+      <c r="K61" s="209"/>
+      <c r="L61" s="210"/>
+      <c r="M61" s="210"/>
+      <c r="N61" s="211"/>
       <c r="O61" s="73"/>
       <c r="P61" s="73"/>
       <c r="Q61" s="75"/>
@@ -12452,10 +12566,10 @@
       <c r="H62" s="62"/>
       <c r="I62" s="62"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="204"/>
-      <c r="L62" s="205"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="206"/>
+      <c r="K62" s="209"/>
+      <c r="L62" s="210"/>
+      <c r="M62" s="210"/>
+      <c r="N62" s="211"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="75"/>
@@ -12477,10 +12591,10 @@
       <c r="H63" s="62"/>
       <c r="I63" s="62"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="204"/>
-      <c r="L63" s="205"/>
-      <c r="M63" s="205"/>
-      <c r="N63" s="206"/>
+      <c r="K63" s="209"/>
+      <c r="L63" s="210"/>
+      <c r="M63" s="210"/>
+      <c r="N63" s="211"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="75"/>
@@ -12502,10 +12616,10 @@
       <c r="H64" s="62"/>
       <c r="I64" s="62"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="204"/>
-      <c r="L64" s="205"/>
-      <c r="M64" s="205"/>
-      <c r="N64" s="206"/>
+      <c r="K64" s="209"/>
+      <c r="L64" s="210"/>
+      <c r="M64" s="210"/>
+      <c r="N64" s="211"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="75"/>
@@ -12525,10 +12639,10 @@
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="204"/>
-      <c r="L65" s="205"/>
-      <c r="M65" s="205"/>
-      <c r="N65" s="206"/>
+      <c r="K65" s="209"/>
+      <c r="L65" s="210"/>
+      <c r="M65" s="210"/>
+      <c r="N65" s="211"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="75"/>
@@ -12548,10 +12662,10 @@
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="204"/>
-      <c r="L66" s="205"/>
-      <c r="M66" s="205"/>
-      <c r="N66" s="206"/>
+      <c r="K66" s="209"/>
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="N66" s="211"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="75"/>
@@ -12571,10 +12685,10 @@
       <c r="H67" s="62"/>
       <c r="I67" s="62"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="204"/>
-      <c r="L67" s="205"/>
-      <c r="M67" s="205"/>
-      <c r="N67" s="206"/>
+      <c r="K67" s="209"/>
+      <c r="L67" s="210"/>
+      <c r="M67" s="210"/>
+      <c r="N67" s="211"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="75"/>
@@ -12594,10 +12708,10 @@
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="204"/>
-      <c r="L68" s="205"/>
-      <c r="M68" s="205"/>
-      <c r="N68" s="206"/>
+      <c r="K68" s="209"/>
+      <c r="L68" s="210"/>
+      <c r="M68" s="210"/>
+      <c r="N68" s="211"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="75"/>
@@ -12617,10 +12731,10 @@
       <c r="H69" s="62"/>
       <c r="I69" s="62"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="204"/>
-      <c r="L69" s="205"/>
-      <c r="M69" s="205"/>
-      <c r="N69" s="206"/>
+      <c r="K69" s="209"/>
+      <c r="L69" s="210"/>
+      <c r="M69" s="210"/>
+      <c r="N69" s="211"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="75"/>
@@ -12640,10 +12754,10 @@
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="204"/>
-      <c r="L70" s="205"/>
-      <c r="M70" s="205"/>
-      <c r="N70" s="206"/>
+      <c r="K70" s="209"/>
+      <c r="L70" s="210"/>
+      <c r="M70" s="210"/>
+      <c r="N70" s="211"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="75"/>
@@ -12663,10 +12777,10 @@
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="204"/>
-      <c r="L71" s="205"/>
-      <c r="M71" s="205"/>
-      <c r="N71" s="206"/>
+      <c r="K71" s="209"/>
+      <c r="L71" s="210"/>
+      <c r="M71" s="210"/>
+      <c r="N71" s="211"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="75"/>
@@ -12686,10 +12800,10 @@
       <c r="H72" s="62"/>
       <c r="I72" s="62"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="204"/>
-      <c r="L72" s="205"/>
-      <c r="M72" s="205"/>
-      <c r="N72" s="206"/>
+      <c r="K72" s="209"/>
+      <c r="L72" s="210"/>
+      <c r="M72" s="210"/>
+      <c r="N72" s="211"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="75"/>
@@ -12709,10 +12823,10 @@
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="204"/>
-      <c r="L73" s="205"/>
-      <c r="M73" s="205"/>
-      <c r="N73" s="206"/>
+      <c r="K73" s="209"/>
+      <c r="L73" s="210"/>
+      <c r="M73" s="210"/>
+      <c r="N73" s="211"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="75"/>
@@ -12732,10 +12846,10 @@
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="204"/>
-      <c r="L74" s="205"/>
-      <c r="M74" s="205"/>
-      <c r="N74" s="206"/>
+      <c r="K74" s="209"/>
+      <c r="L74" s="210"/>
+      <c r="M74" s="210"/>
+      <c r="N74" s="211"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="75"/>
@@ -12755,10 +12869,10 @@
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="204"/>
-      <c r="L75" s="205"/>
-      <c r="M75" s="205"/>
-      <c r="N75" s="206"/>
+      <c r="K75" s="209"/>
+      <c r="L75" s="210"/>
+      <c r="M75" s="210"/>
+      <c r="N75" s="211"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="75"/>
@@ -12778,10 +12892,10 @@
       <c r="H76" s="62"/>
       <c r="I76" s="62"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="204"/>
-      <c r="L76" s="205"/>
-      <c r="M76" s="205"/>
-      <c r="N76" s="206"/>
+      <c r="K76" s="209"/>
+      <c r="L76" s="210"/>
+      <c r="M76" s="210"/>
+      <c r="N76" s="211"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="75"/>
@@ -12801,10 +12915,10 @@
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="204"/>
-      <c r="L77" s="205"/>
-      <c r="M77" s="205"/>
-      <c r="N77" s="206"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="210"/>
+      <c r="M77" s="210"/>
+      <c r="N77" s="211"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="75"/>
@@ -12824,10 +12938,10 @@
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="204"/>
-      <c r="L78" s="205"/>
-      <c r="M78" s="205"/>
-      <c r="N78" s="206"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="210"/>
+      <c r="M78" s="210"/>
+      <c r="N78" s="211"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="75"/>
@@ -12847,10 +12961,10 @@
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="204"/>
-      <c r="L79" s="205"/>
-      <c r="M79" s="205"/>
-      <c r="N79" s="206"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="210"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="211"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="75"/>
@@ -12870,10 +12984,10 @@
       <c r="H80" s="62"/>
       <c r="I80" s="62"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="204"/>
-      <c r="L80" s="205"/>
-      <c r="M80" s="205"/>
-      <c r="N80" s="206"/>
+      <c r="K80" s="209"/>
+      <c r="L80" s="210"/>
+      <c r="M80" s="210"/>
+      <c r="N80" s="211"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="75"/>
@@ -12893,10 +13007,10 @@
       <c r="H81" s="62"/>
       <c r="I81" s="62"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="204"/>
-      <c r="L81" s="205"/>
-      <c r="M81" s="205"/>
-      <c r="N81" s="206"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="210"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="211"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="75"/>
@@ -12916,10 +13030,10 @@
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="204"/>
-      <c r="L82" s="205"/>
-      <c r="M82" s="205"/>
-      <c r="N82" s="206"/>
+      <c r="K82" s="209"/>
+      <c r="L82" s="210"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="211"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="75"/>
@@ -12939,10 +13053,10 @@
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="204"/>
-      <c r="L83" s="205"/>
-      <c r="M83" s="205"/>
-      <c r="N83" s="206"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="210"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="211"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="75"/>
@@ -12962,10 +13076,10 @@
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="204"/>
-      <c r="L84" s="205"/>
-      <c r="M84" s="205"/>
-      <c r="N84" s="206"/>
+      <c r="K84" s="209"/>
+      <c r="L84" s="210"/>
+      <c r="M84" s="210"/>
+      <c r="N84" s="211"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="75"/>
@@ -12985,10 +13099,10 @@
       <c r="H85" s="62"/>
       <c r="I85" s="62"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="204"/>
-      <c r="L85" s="205"/>
-      <c r="M85" s="205"/>
-      <c r="N85" s="206"/>
+      <c r="K85" s="209"/>
+      <c r="L85" s="210"/>
+      <c r="M85" s="210"/>
+      <c r="N85" s="211"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="75"/>
@@ -13008,10 +13122,10 @@
       <c r="H86" s="62"/>
       <c r="I86" s="62"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="204"/>
-      <c r="L86" s="205"/>
-      <c r="M86" s="205"/>
-      <c r="N86" s="206"/>
+      <c r="K86" s="209"/>
+      <c r="L86" s="210"/>
+      <c r="M86" s="210"/>
+      <c r="N86" s="211"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="75"/>
@@ -13031,10 +13145,10 @@
       <c r="H87" s="62"/>
       <c r="I87" s="62"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="204"/>
-      <c r="L87" s="205"/>
-      <c r="M87" s="205"/>
-      <c r="N87" s="206"/>
+      <c r="K87" s="209"/>
+      <c r="L87" s="210"/>
+      <c r="M87" s="210"/>
+      <c r="N87" s="211"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="75"/>
@@ -13054,10 +13168,10 @@
       <c r="H88" s="62"/>
       <c r="I88" s="62"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="204"/>
-      <c r="L88" s="205"/>
-      <c r="M88" s="205"/>
-      <c r="N88" s="206"/>
+      <c r="K88" s="209"/>
+      <c r="L88" s="210"/>
+      <c r="M88" s="210"/>
+      <c r="N88" s="211"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="75"/>
@@ -13077,10 +13191,10 @@
       <c r="H89" s="62"/>
       <c r="I89" s="62"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="204"/>
-      <c r="L89" s="205"/>
-      <c r="M89" s="205"/>
-      <c r="N89" s="206"/>
+      <c r="K89" s="209"/>
+      <c r="L89" s="210"/>
+      <c r="M89" s="210"/>
+      <c r="N89" s="211"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="75"/>
@@ -13100,10 +13214,10 @@
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="204"/>
-      <c r="L90" s="205"/>
-      <c r="M90" s="205"/>
-      <c r="N90" s="206"/>
+      <c r="K90" s="209"/>
+      <c r="L90" s="210"/>
+      <c r="M90" s="210"/>
+      <c r="N90" s="211"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="75"/>
@@ -13123,10 +13237,10 @@
       <c r="H91" s="62"/>
       <c r="I91" s="62"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="204"/>
-      <c r="L91" s="205"/>
-      <c r="M91" s="205"/>
-      <c r="N91" s="206"/>
+      <c r="K91" s="209"/>
+      <c r="L91" s="210"/>
+      <c r="M91" s="210"/>
+      <c r="N91" s="211"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="75"/>
@@ -13146,10 +13260,10 @@
       <c r="H92" s="62"/>
       <c r="I92" s="62"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="204"/>
-      <c r="L92" s="205"/>
-      <c r="M92" s="205"/>
-      <c r="N92" s="206"/>
+      <c r="K92" s="209"/>
+      <c r="L92" s="210"/>
+      <c r="M92" s="210"/>
+      <c r="N92" s="211"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="75"/>
@@ -13169,10 +13283,10 @@
       <c r="H93" s="62"/>
       <c r="I93" s="62"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="204"/>
-      <c r="L93" s="205"/>
-      <c r="M93" s="205"/>
-      <c r="N93" s="206"/>
+      <c r="K93" s="209"/>
+      <c r="L93" s="210"/>
+      <c r="M93" s="210"/>
+      <c r="N93" s="211"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="75"/>
@@ -13192,10 +13306,10 @@
       <c r="H94" s="62"/>
       <c r="I94" s="62"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="204"/>
-      <c r="L94" s="205"/>
-      <c r="M94" s="205"/>
-      <c r="N94" s="206"/>
+      <c r="K94" s="209"/>
+      <c r="L94" s="210"/>
+      <c r="M94" s="210"/>
+      <c r="N94" s="211"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="75"/>
@@ -13208,47 +13322,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -13265,43 +13375,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13330,7 +13444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
@@ -13347,10 +13461,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13380,8 +13494,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13439,7 +13553,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13520,7 +13634,7 @@
       <c r="A12" s="79"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13678,7 +13792,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72"/>
       <c r="B26" s="85" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -14456,10 +14570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14489,8 +14603,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
